--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_1.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32588-d3468716-Reviews-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>133</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-14-West.h5490127.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_1.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1601 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r586502525-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32588</t>
+  </si>
+  <si>
+    <t>3468716</t>
+  </si>
+  <si>
+    <t>586502525</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>A Moment to Pause....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I stayed at 14 West Boutique Hotel in Laguna.  Overall we LOVED it!  We love the Melrose Place feel to it with the common area.  Each room is HUGE!  All rooms are decorated differently and all have fireplaces.  Our room had a beautiful bathroom, separate vanity, walk in closet.  The kitchenette was fully stocked with glassware and dishes.  It also had 2 refrigerators.  There is a skylight that stretches from the living space into the bathroom.   A nice touch for natural sunlight.  Each room has a patio area, if you will at the front door.  Very pleasant for enjoying the day.  A quiet and pleasant place.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r583983081-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>583983081</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Brady Bunte - 14 West Hotel, Laguna Beach, CA</t>
+  </si>
+  <si>
+    <t>Very cool boutique Hotel!    I really enjoyed my stay here.   It is very conveniently located within walking distance to the beach, shops, restaurants and market!   The staff is very friendly and the hotel has a cool vibe to it.   I highly recommend!  Tell them Brady Bunte sent you.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r578681412-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>578681412</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>This boutique hotel was perfect for our weekend getaway!  We went to Laguna for the weekend to visit friends in the area.  We have stayed at many other places in Laguna but they were booked due to us visiting on a holiday weekend.  This hotel DID NOT disappoint!  It was clean, spacious, modern, clean, quiet, great room amenities, big bathroom, small kitchenette, clean, close to everything, did I mention clean and quiet?  We will definitely return, thank you!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r562979131-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>562979131</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>An awesome hotel across the street from the ocean great beds kitchenette rooms open up to great meeting area with table lounge chairs and barbecue. A perfect meeting place for family members staying at hotel together. We were there for a family wedding and it was wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julio M, Manager at 14 West Boutique Hotel, responded to this reviewResponded March 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2018</t>
+  </si>
+  <si>
+    <t>An awesome hotel across the street from the ocean great beds kitchenette rooms open up to great meeting area with table lounge chairs and barbecue. A perfect meeting place for family members staying at hotel together. We were there for a family wedding and it was wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r544327309-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>544327309</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Great accommodation but beware the traffic noise</t>
+  </si>
+  <si>
+    <t>This place has really fine rooms modernly appointed with up to date appliances, bedding and furnishings.  Each room has just a little different set up.  There is a classy outside sitting area between the 2 layers of rooms that run along a rectangular upstairs setting.The hotel is located rough on Pacific Coast Highway 1 and it is LOUD.  My first room was only 1 room removed from the highway and it was not acceptable.  I could only move one more room over, but that was enough to curtail the traffic noise.If you go, request as far back from the highway as possible.Undergound parking is available for %15/ night and worth it as there is only metered parking for 8 am- 7 pm in the neighbourhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>This place has really fine rooms modernly appointed with up to date appliances, bedding and furnishings.  Each room has just a little different set up.  There is a classy outside sitting area between the 2 layers of rooms that run along a rectangular upstairs setting.The hotel is located rough on Pacific Coast Highway 1 and it is LOUD.  My first room was only 1 room removed from the highway and it was not acceptable.  I could only move one more room over, but that was enough to curtail the traffic noise.If you go, request as far back from the highway as possible.Undergound parking is available for %15/ night and worth it as there is only metered parking for 8 am- 7 pm in the neighbourhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r540549821-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>540549821</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel!</t>
+  </si>
+  <si>
+    <t>My husband surprised me by bringing me to Laguna for the first time and booked this beautiful hotel for us! Julio (front desk manager) greeted us and was very kind. The room we were in was beautiful and stylish and it even had a nice kitchenette! The room was a decent size and the bed was comfortable. We were very pleased with our stay and cannot wait to come back! MoreShow less</t>
+  </si>
+  <si>
+    <t>Nooshin G, General Manager at 14 West Boutique Hotel, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>My husband surprised me by bringing me to Laguna for the first time and booked this beautiful hotel for us! Julio (front desk manager) greeted us and was very kind. The room we were in was beautiful and stylish and it even had a nice kitchenette! The room was a decent size and the bed was comfortable. We were very pleased with our stay and cannot wait to come back! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r526018917-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>526018917</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great find! </t>
+  </si>
+  <si>
+    <t>Hotel was as advertised, very clean and good location right in the heart of the laguna.  Tons of shops and restaurants are easily walkable. Staff was help and parking was among the cheapest we've found at hotels in southern California. Room seemed quiet too. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Hotel was as advertised, very clean and good location right in the heart of the laguna.  Tons of shops and restaurants are easily walkable. Staff was help and parking was among the cheapest we've found at hotels in southern California. Room seemed quiet too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r525875764-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>525875764</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Better times</t>
+  </si>
+  <si>
+    <t>As return guests at this boutique hotel we love the 14 West for its convenient location, modern style,  comfort and privacy. Having stayed here previously, it is only fair to say that this unique property has seen better times and is in desperate need of a make-over. We hope the new management finds its way back to the charm this property once had. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nooshin G, General Manager at 14 West Boutique Hotel, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>As return guests at this boutique hotel we love the 14 West for its convenient location, modern style,  comfort and privacy. Having stayed here previously, it is only fair to say that this unique property has seen better times and is in desperate need of a make-over. We hope the new management finds its way back to the charm this property once had. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r524232861-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>524232861</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Modern Hotel with Many Amenities- Loved it!!</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed here for the first time for Labor Day Weekend. We drove in from Arizona.  A busy weekend, but from the time we arrived (the young man behind the desk took the time to tell us what was nearby, about the beach access directly across the street, and even helped us with our bags to our room and showed us to our room.   They provide free ice downstairs, which was awesome for packing a cooler for the beach each day.  The room was very spacious, modern, beautifully tiled bathroom with jet tub and a walk-in closet!!!!!  You never see that in a hotel!   The daily housekeeping was a plus, so we got fresh towels and beds made. The kitchen area had everything we needed, including a nice cork screw for a bottle of wine we brought :)   The bed was the most comfortable bed ever!   We never slept this well at home.  I highly recommend this place- its small, so it's not overcrowded.  The public area has beautiful lounge chairs and a BBQ if you just want to hang out and chill.   We will definitely be back!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed here for the first time for Labor Day Weekend. We drove in from Arizona.  A busy weekend, but from the time we arrived (the young man behind the desk took the time to tell us what was nearby, about the beach access directly across the street, and even helped us with our bags to our room and showed us to our room.   They provide free ice downstairs, which was awesome for packing a cooler for the beach each day.  The room was very spacious, modern, beautifully tiled bathroom with jet tub and a walk-in closet!!!!!  You never see that in a hotel!   The daily housekeeping was a plus, so we got fresh towels and beds made. The kitchen area had everything we needed, including a nice cork screw for a bottle of wine we brought :)   The bed was the most comfortable bed ever!   We never slept this well at home.  I highly recommend this place- its small, so it's not overcrowded.  The public area has beautiful lounge chairs and a BBQ if you just want to hang out and chill.   We will definitely be back!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r518180822-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>518180822</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Cheap run down motel</t>
+  </si>
+  <si>
+    <t>Booked this hotel because of the pictures. Came into the lobby to check in and the front desk person, Sergio was eating and talking to me with a full mouth. The lobby smelled like fart. Upon arriving at the room it has a smell of old rust. The room was stuffy and the t.v didn't work! I went to notify the front desk, and he just gave me a blank stare and said he will make a phone call. Really unprofessional and will never come back to this dump! The towels were yellow and stained. Total ripoff</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r511536238-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>511536238</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Not what was advertised!!</t>
+  </si>
+  <si>
+    <t>Let me say first off the stuff were very helpful and great during the 3 days we were there. The hotel is run down but in the pictures looks sparkling! The location is first rate...close to town, step away from Ralph's and the beach.The room is laid  out in an odd way...lots of things do not work. Great to have a fridge though :)The jacuzzi tub was not working but they said they apologized and the jacuzzi outside was working. It was not. The lounge chairs and deck chairs were stained and shabby looking...not at all inviting. The tub to climb into, was about 36 inches high...any disability in this hotel would not work...stairs up to the room were steep and narrow also.There is a BBQ( not the built in one showed on the pictures) that stands outside with no propane rank...maybe you have to bring your own?? I would not recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Let me say first off the stuff were very helpful and great during the 3 days we were there. The hotel is run down but in the pictures looks sparkling! The location is first rate...close to town, step away from Ralph's and the beach.The room is laid  out in an odd way...lots of things do not work. Great to have a fridge though :)The jacuzzi tub was not working but they said they apologized and the jacuzzi outside was working. It was not. The lounge chairs and deck chairs were stained and shabby looking...not at all inviting. The tub to climb into, was about 36 inches high...any disability in this hotel would not work...stairs up to the room were steep and narrow also.There is a BBQ( not the built in one showed on the pictures) that stands outside with no propane rank...maybe you have to bring your own?? I would not recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r509546463-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>509546463</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Such a delight!!</t>
+  </si>
+  <si>
+    <t>We had a wonderful experience at this hotel. Sergio couldn't have been more helpful or sincere at what he does to make his guests feel special and appreciated!! Thank you for that. The room was clean and spacious and the beds were very comfortable. Loved the room rate which was a big factor in choosing where to stay, but it had to be a nice hotel too. But let me say, this was more than nice. Soooo close to the beach and village also. Plenty of utensils and such for the kitchenette, and the AC worked great. Spacious closet and nice bathroom. The outdoor patio was very nice and clean. The maid was super nice too. A big thankyou to all the staff for making our stay very memorable. We will return!!MoreShow less</t>
+  </si>
+  <si>
+    <t>14Westlb, Manager at 14 West Boutique Hotel, responded to this reviewResponded August 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2017</t>
+  </si>
+  <si>
+    <t>We had a wonderful experience at this hotel. Sergio couldn't have been more helpful or sincere at what he does to make his guests feel special and appreciated!! Thank you for that. The room was clean and spacious and the beds were very comfortable. Loved the room rate which was a big factor in choosing where to stay, but it had to be a nice hotel too. But let me say, this was more than nice. Soooo close to the beach and village also. Plenty of utensils and such for the kitchenette, and the AC worked great. Spacious closet and nice bathroom. The outdoor patio was very nice and clean. The maid was super nice too. A big thankyou to all the staff for making our stay very memorable. We will return!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r486702683-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>486702683</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend in Laguna </t>
+  </si>
+  <si>
+    <t>Chris is very friendly he will go out of his way to make sure you enjoy your stay 14 west is the best place to stay in LagunaThe rooms are very cleanWe love this place. Is walking distance to restaurants and the beach MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>14Westlb, Guest Relations Manager at 14 West Boutique Hotel, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Chris is very friendly he will go out of his way to make sure you enjoy your stay 14 west is the best place to stay in LagunaThe rooms are very cleanWe love this place. Is walking distance to restaurants and the beach More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r480692718-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>480692718</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Oasis meets Beach</t>
+  </si>
+  <si>
+    <t>I always feel like going to any really good beach community in California is going to cost $300+ per night for anything a) cool and b) close to the beach. 14 West is both. It's a boutique hotel which means it's small and you're not going to get the services that someone like me never uses anyway. In fact, the gate code might suddenly not work and you have to be able to deal with one flight of stairs from the subterranean parking, but those are small prices to pay for everything else in the plus column. 
+What we love about this place:
+- Location. It's right off PCH and 1 block from beach with simple access. You can walk across the street to the classic Orange Inn for breakfast which we did nearly every morning. Bike shop 2 blocks away. An abundance of surf shops everywhere. Downtown Laguna, short walk. Really, you don't even need a car unless you're going exploring or headed to the San Juan bike trail system :)
+- Big Rooms. We've stayed in several of the rooms and they're all great. Pretty new, clean, big shower, kitchenette, coma-level bed, gas fireplace. 
+- Clientele. The outdoor common area is a main gathering point and we've actually gotten to know other guests. Trust me, we typically aren't those people, but this place attracts fun couples. 
+- Staff. Small, conscientious and largely hidden. The good news is they're...I always feel like going to any really good beach community in California is going to cost $300+ per night for anything a) cool and b) close to the beach. 14 West is both. It's a boutique hotel which means it's small and you're not going to get the services that someone like me never uses anyway. In fact, the gate code might suddenly not work and you have to be able to deal with one flight of stairs from the subterranean parking, but those are small prices to pay for everything else in the plus column. What we love about this place:- Location. It's right off PCH and 1 block from beach with simple access. You can walk across the street to the classic Orange Inn for breakfast which we did nearly every morning. Bike shop 2 blocks away. An abundance of surf shops everywhere. Downtown Laguna, short walk. Really, you don't even need a car unless you're going exploring or headed to the San Juan bike trail system :)- Big Rooms. We've stayed in several of the rooms and they're all great. Pretty new, clean, big shower, kitchenette, coma-level bed, gas fireplace. - Clientele. The outdoor common area is a main gathering point and we've actually gotten to know other guests. Trust me, we typically aren't those people, but this place attracts fun couples. - Staff. Small, conscientious and largely hidden. The good news is they're nice people and super helpful (even let us clean our bicycles off with the hotel hose).MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>14Westlb, Public Relations Manager at 14 West Boutique Hotel, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>I always feel like going to any really good beach community in California is going to cost $300+ per night for anything a) cool and b) close to the beach. 14 West is both. It's a boutique hotel which means it's small and you're not going to get the services that someone like me never uses anyway. In fact, the gate code might suddenly not work and you have to be able to deal with one flight of stairs from the subterranean parking, but those are small prices to pay for everything else in the plus column. 
+What we love about this place:
+- Location. It's right off PCH and 1 block from beach with simple access. You can walk across the street to the classic Orange Inn for breakfast which we did nearly every morning. Bike shop 2 blocks away. An abundance of surf shops everywhere. Downtown Laguna, short walk. Really, you don't even need a car unless you're going exploring or headed to the San Juan bike trail system :)
+- Big Rooms. We've stayed in several of the rooms and they're all great. Pretty new, clean, big shower, kitchenette, coma-level bed, gas fireplace. 
+- Clientele. The outdoor common area is a main gathering point and we've actually gotten to know other guests. Trust me, we typically aren't those people, but this place attracts fun couples. 
+- Staff. Small, conscientious and largely hidden. The good news is they're...I always feel like going to any really good beach community in California is going to cost $300+ per night for anything a) cool and b) close to the beach. 14 West is both. It's a boutique hotel which means it's small and you're not going to get the services that someone like me never uses anyway. In fact, the gate code might suddenly not work and you have to be able to deal with one flight of stairs from the subterranean parking, but those are small prices to pay for everything else in the plus column. What we love about this place:- Location. It's right off PCH and 1 block from beach with simple access. You can walk across the street to the classic Orange Inn for breakfast which we did nearly every morning. Bike shop 2 blocks away. An abundance of surf shops everywhere. Downtown Laguna, short walk. Really, you don't even need a car unless you're going exploring or headed to the San Juan bike trail system :)- Big Rooms. We've stayed in several of the rooms and they're all great. Pretty new, clean, big shower, kitchenette, coma-level bed, gas fireplace. - Clientele. The outdoor common area is a main gathering point and we've actually gotten to know other guests. Trust me, we typically aren't those people, but this place attracts fun couples. - Staff. Small, conscientious and largely hidden. The good news is they're nice people and super helpful (even let us clean our bicycles off with the hotel hose).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r479307111-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>479307111</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Great find</t>
+  </si>
+  <si>
+    <t>Surprised to have found this little reserved quiet and wonderfully located hotel. Strange parking set up (hard to turn in from main road when coming from north. Well set up amenities for those willing to cook light.MoreShow less</t>
+  </si>
+  <si>
+    <t>Surprised to have found this little reserved quiet and wonderfully located hotel. Strange parking set up (hard to turn in from main road when coming from north. Well set up amenities for those willing to cook light.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r461542165-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>461542165</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Loved this hotel so much! Super modern, clean and well thought out. Stayed the weekend with my husband. Had a great room, all rooms are upstairs. No elevator. Tile slate colored floors and nicely painted walls. Nice size flat screen tv above the gas fireplace across from the tempurpedic bed. There was 2 refrigerators, a microwave, 2 burner gas stove. utensils, glassware &amp; dishes. A sink in the kitchenette. There was a coffee maker &amp; a toaster. They even had soap &amp; sponge, Pots and pans and a wine key. Loved this so much! There were skylights throughout. The bathroom was nice, super modern deep square tub, good water pressure. Nice towel rack. The sink was separate from the shower &amp; toilet. They had a really nice closet with room for shoes &amp; clothes. Very well thought out. The wifi worked great. It was across the street from the ocean, however you can't see it or hear it. The windows don't open. Loved staying here. My only complaint would be we came especially to use the jacuzzi which they tried to get it to work but it didn't . Such a bummer. It was one of the reasons why I chose this hotel besides looking so beautiful. Would recommend this lovely hotel. There was a cot in the closet as well. Also there is a Ralphs grocery store walking distance, close to tons of stores and shops &amp; restaurants. Nice...Loved this hotel so much! Super modern, clean and well thought out. Stayed the weekend with my husband. Had a great room, all rooms are upstairs. No elevator. Tile slate colored floors and nicely painted walls. Nice size flat screen tv above the gas fireplace across from the tempurpedic bed. There was 2 refrigerators, a microwave, 2 burner gas stove. utensils, glassware &amp; dishes. A sink in the kitchenette. There was a coffee maker &amp; a toaster. They even had soap &amp; sponge, Pots and pans and a wine key. Loved this so much! There were skylights throughout. The bathroom was nice, super modern deep square tub, good water pressure. Nice towel rack. The sink was separate from the shower &amp; toilet. They had a really nice closet with room for shoes &amp; clothes. Very well thought out. The wifi worked great. It was across the street from the ocean, however you can't see it or hear it. The windows don't open. Loved staying here. My only complaint would be we came especially to use the jacuzzi which they tried to get it to work but it didn't . Such a bummer. It was one of the reasons why I chose this hotel besides looking so beautiful. Would recommend this lovely hotel. There was a cot in the closet as well. Also there is a Ralphs grocery store walking distance, close to tons of stores and shops &amp; restaurants. Nice to leave your car there and walk around. Very centrally located. There is also nice lounges &amp; a bbq grill outside as well. Free parking for us. It was included. No issues with any of that. A great place to stay and enjoy Laguna Beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>14Westlb, Public Relations Manager at 14 West Boutique Hotel, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Loved this hotel so much! Super modern, clean and well thought out. Stayed the weekend with my husband. Had a great room, all rooms are upstairs. No elevator. Tile slate colored floors and nicely painted walls. Nice size flat screen tv above the gas fireplace across from the tempurpedic bed. There was 2 refrigerators, a microwave, 2 burner gas stove. utensils, glassware &amp; dishes. A sink in the kitchenette. There was a coffee maker &amp; a toaster. They even had soap &amp; sponge, Pots and pans and a wine key. Loved this so much! There were skylights throughout. The bathroom was nice, super modern deep square tub, good water pressure. Nice towel rack. The sink was separate from the shower &amp; toilet. They had a really nice closet with room for shoes &amp; clothes. Very well thought out. The wifi worked great. It was across the street from the ocean, however you can't see it or hear it. The windows don't open. Loved staying here. My only complaint would be we came especially to use the jacuzzi which they tried to get it to work but it didn't . Such a bummer. It was one of the reasons why I chose this hotel besides looking so beautiful. Would recommend this lovely hotel. There was a cot in the closet as well. Also there is a Ralphs grocery store walking distance, close to tons of stores and shops &amp; restaurants. Nice...Loved this hotel so much! Super modern, clean and well thought out. Stayed the weekend with my husband. Had a great room, all rooms are upstairs. No elevator. Tile slate colored floors and nicely painted walls. Nice size flat screen tv above the gas fireplace across from the tempurpedic bed. There was 2 refrigerators, a microwave, 2 burner gas stove. utensils, glassware &amp; dishes. A sink in the kitchenette. There was a coffee maker &amp; a toaster. They even had soap &amp; sponge, Pots and pans and a wine key. Loved this so much! There were skylights throughout. The bathroom was nice, super modern deep square tub, good water pressure. Nice towel rack. The sink was separate from the shower &amp; toilet. They had a really nice closet with room for shoes &amp; clothes. Very well thought out. The wifi worked great. It was across the street from the ocean, however you can't see it or hear it. The windows don't open. Loved staying here. My only complaint would be we came especially to use the jacuzzi which they tried to get it to work but it didn't . Such a bummer. It was one of the reasons why I chose this hotel besides looking so beautiful. Would recommend this lovely hotel. There was a cot in the closet as well. Also there is a Ralphs grocery store walking distance, close to tons of stores and shops &amp; restaurants. Nice to leave your car there and walk around. Very centrally located. There is also nice lounges &amp; a bbq grill outside as well. Free parking for us. It was included. No issues with any of that. A great place to stay and enjoy Laguna Beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r460430135-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>460430135</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Fun couple of days</t>
+  </si>
+  <si>
+    <t>Our first visit to a "boutique" hotel was a nice surprise.  Exceptionally clean, nice atmosphere with fireplace near the bed, and convenient to walk the town. Parking under the hotel was a challenge for our SUV but worked out just fine.  Didn't have to move the car while we walked the town.MoreShow less</t>
+  </si>
+  <si>
+    <t>14Westlb, Guest Relations Manager at 14 West Boutique Hotel, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Our first visit to a "boutique" hotel was a nice surprise.  Exceptionally clean, nice atmosphere with fireplace near the bed, and convenient to walk the town. Parking under the hotel was a challenge for our SUV but worked out just fine.  Didn't have to move the car while we walked the town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r451068401-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>451068401</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Great getaway!</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise. Very trendy. Unique rooms. Great service. Close to beach, restaurants, downtown area. Private, covered parking with an entry code. Hard to appreciate from the street. You could easily miss it but you are in for a very nice surprise when you climb the stairs to the 2nd level courtyard and enter any of the large, unique rooms. Would definetly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>14West, Public Relations Manager at 14 West Boutique Hotel, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise. Very trendy. Unique rooms. Great service. Close to beach, restaurants, downtown area. Private, covered parking with an entry code. Hard to appreciate from the street. You could easily miss it but you are in for a very nice surprise when you climb the stairs to the 2nd level courtyard and enter any of the large, unique rooms. Would definetly stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r412543756-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>412543756</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Wonderful modern room for a great rate, in a perfect location!</t>
+  </si>
+  <si>
+    <t>What a nice stay we had. Even thought it was for one night. Loved the modern room. Room four was a king size room with all amenities. They did a great job. Not a typical resort, but a fun quirky style hotel, that has been redone to meet the most critical customer.  Very spacious, clean, modern, open space right across from the beach. Walking distance to everything you need! Will be back!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>14West, Guest Relations Manager at 14 West Boutique Hotel, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>What a nice stay we had. Even thought it was for one night. Loved the modern room. Room four was a king size room with all amenities. They did a great job. Not a typical resort, but a fun quirky style hotel, that has been redone to meet the most critical customer.  Very spacious, clean, modern, open space right across from the beach. Walking distance to everything you need! Will be back!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r407222988-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>407222988</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Two night stop over at end of trip before travelling back to uk.</t>
+  </si>
+  <si>
+    <t>Two night stop over at end of trip before travelling back to uk. Good central location within Laguna beach, short walk to many restaurants. Rooms very clean modern and well set out. Parking available on site for extra charge.MoreShow less</t>
+  </si>
+  <si>
+    <t>Two night stop over at end of trip before travelling back to uk. Good central location within Laguna beach, short walk to many restaurants. Rooms very clean modern and well set out. Parking available on site for extra charge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r401902598-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>401902598</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Very Quaint</t>
+  </si>
+  <si>
+    <t>We were only at 14 West for one night but was very pleased with the boutique.  The woman at the desk was so helpful and offered many suggestions.  I wish we were spending more time there because i would have liked to use the kitchen amenities.  Very clean property in and out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We were only at 14 West for one night but was very pleased with the boutique.  The woman at the desk was so helpful and offered many suggestions.  I wish we were spending more time there because i would have liked to use the kitchen amenities.  Very clean property in and out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r396039734-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>396039734</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Not much to expect at this "Boutique" Hotel</t>
+  </si>
+  <si>
+    <t>Check in attendant lacked customer service upon check in. For a Boutique hotel I expected her to at least show us to our room since we checked in during business hours. Rather she just handed us our keys and asked if we read our instructions in our email (which we did BTW). When I asked for linen and pillow for the sofa for my son, I was handed a top sheet and told to use one of the other pillows. The couch is in terrible condition (see pictures). The jet tub was broken in the bathroom. The temper pedic mattress sags in the middle so plan on sleeping in the center of the bed, even if there are two of you. There is a lot of natural light in room 7 during the day. However, at night there were 3 lights burnt out and it was rather dark. I asked for them to be replaced and was told their maintenance worker does not work on the weekends. For an small boutique hotel and the price we paid I expected more.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in attendant lacked customer service upon check in. For a Boutique hotel I expected her to at least show us to our room since we checked in during business hours. Rather she just handed us our keys and asked if we read our instructions in our email (which we did BTW). When I asked for linen and pillow for the sofa for my son, I was handed a top sheet and told to use one of the other pillows. The couch is in terrible condition (see pictures). The jet tub was broken in the bathroom. The temper pedic mattress sags in the middle so plan on sleeping in the center of the bed, even if there are two of you. There is a lot of natural light in room 7 during the day. However, at night there were 3 lights burnt out and it was rather dark. I asked for them to be replaced and was told their maintenance worker does not work on the weekends. For an small boutique hotel and the price we paid I expected more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r383064005-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>383064005</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Beautiful room!!! Great location!! Must stay!!!</t>
+  </si>
+  <si>
+    <t>I stayed at 14 west 6/13-6/15 for $200.00 a night plus $15 a day for parking. I was very impressed with Hermosa room #10, which is a king bed, kitchenette, walk in closet, 2 mini fridges, large bath tub/shower, flat screen tv, gas fireplace &amp; couch. It was extremely clean!! The bed was by far the most comfortable bed I've ever slept in. I travel several times a year and have never slept in such comfort. The linens were nice &amp; the pillows were very comfortable too!! Lots of cable channels and it was nice relaxing &amp; enjoying the gas fireplace. There is a hot tub and seating in the common area of the hotel. The hot tub is amazing &amp; was very relaxing, especially after all of the sightseeing!
+The best part about this hotel was the location. Walking distance to several restaurants, shops, gas stations, beach rental equipment &amp; beaches. Right across the street is Cleo beach but if you walk about 3 to 4 blocks north, main beach is right at your feet, which has a basketball court and volleyball nets. It was so great being able to walk everywhere then come back to a clean condo/apt. And relax. I highly recommend this place! It is kind of expensive but well worth the price!! I would def. stay here again. I highly recommend it! I did not want to leave!
+Hotel staff is also friendly and professional....I stayed at 14 west 6/13-6/15 for $200.00 a night plus $15 a day for parking. I was very impressed with Hermosa room #10, which is a king bed, kitchenette, walk in closet, 2 mini fridges, large bath tub/shower, flat screen tv, gas fireplace &amp; couch. It was extremely clean!! The bed was by far the most comfortable bed I've ever slept in. I travel several times a year and have never slept in such comfort. The linens were nice &amp; the pillows were very comfortable too!! Lots of cable channels and it was nice relaxing &amp; enjoying the gas fireplace. There is a hot tub and seating in the common area of the hotel. The hot tub is amazing &amp; was very relaxing, especially after all of the sightseeing!The best part about this hotel was the location. Walking distance to several restaurants, shops, gas stations, beach rental equipment &amp; beaches. Right across the street is Cleo beach but if you walk about 3 to 4 blocks north, main beach is right at your feet, which has a basketball court and volleyball nets. It was so great being able to walk everywhere then come back to a clean condo/apt. And relax. I highly recommend this place! It is kind of expensive but well worth the price!! I would def. stay here again. I highly recommend it! I did not want to leave!Hotel staff is also friendly and professional. They also provide you with body board and other beach equipment if you need to borrow. People in these reviews mentioned a noisy street but I did not hear any noise from my room. It was very peaceful and quiet, even during the day, I could not hear the loud traffic.I can't wait to come back to Laguna and stay here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at 14 west 6/13-6/15 for $200.00 a night plus $15 a day for parking. I was very impressed with Hermosa room #10, which is a king bed, kitchenette, walk in closet, 2 mini fridges, large bath tub/shower, flat screen tv, gas fireplace &amp; couch. It was extremely clean!! The bed was by far the most comfortable bed I've ever slept in. I travel several times a year and have never slept in such comfort. The linens were nice &amp; the pillows were very comfortable too!! Lots of cable channels and it was nice relaxing &amp; enjoying the gas fireplace. There is a hot tub and seating in the common area of the hotel. The hot tub is amazing &amp; was very relaxing, especially after all of the sightseeing!
+The best part about this hotel was the location. Walking distance to several restaurants, shops, gas stations, beach rental equipment &amp; beaches. Right across the street is Cleo beach but if you walk about 3 to 4 blocks north, main beach is right at your feet, which has a basketball court and volleyball nets. It was so great being able to walk everywhere then come back to a clean condo/apt. And relax. I highly recommend this place! It is kind of expensive but well worth the price!! I would def. stay here again. I highly recommend it! I did not want to leave!
+Hotel staff is also friendly and professional....I stayed at 14 west 6/13-6/15 for $200.00 a night plus $15 a day for parking. I was very impressed with Hermosa room #10, which is a king bed, kitchenette, walk in closet, 2 mini fridges, large bath tub/shower, flat screen tv, gas fireplace &amp; couch. It was extremely clean!! The bed was by far the most comfortable bed I've ever slept in. I travel several times a year and have never slept in such comfort. The linens were nice &amp; the pillows were very comfortable too!! Lots of cable channels and it was nice relaxing &amp; enjoying the gas fireplace. There is a hot tub and seating in the common area of the hotel. The hot tub is amazing &amp; was very relaxing, especially after all of the sightseeing!The best part about this hotel was the location. Walking distance to several restaurants, shops, gas stations, beach rental equipment &amp; beaches. Right across the street is Cleo beach but if you walk about 3 to 4 blocks north, main beach is right at your feet, which has a basketball court and volleyball nets. It was so great being able to walk everywhere then come back to a clean condo/apt. And relax. I highly recommend this place! It is kind of expensive but well worth the price!! I would def. stay here again. I highly recommend it! I did not want to leave!Hotel staff is also friendly and professional. They also provide you with body board and other beach equipment if you need to borrow. People in these reviews mentioned a noisy street but I did not hear any noise from my room. It was very peaceful and quiet, even during the day, I could not hear the loud traffic.I can't wait to come back to Laguna and stay here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r377357851-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>377357851</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Contemporary, trendy, but right at PCH (TRAFFIC)</t>
+  </si>
+  <si>
+    <t>This is really cool, hipster lodging very convenient to the village.  Be forewarned, it is anything but quite.  You will hear PCH all night long. The rooms were very well appointed.  No proper restaurant, but many choices in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This is really cool, hipster lodging very convenient to the village.  Be forewarned, it is anything but quite.  You will hear PCH all night long. The rooms were very well appointed.  No proper restaurant, but many choices in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r357717891-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>357717891</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Love this boutique hotel!</t>
+  </si>
+  <si>
+    <t>This is our 3rd stay in Laguna and our 3rd stay at 14West.  We have loved it since the first time we stayed here.  The rooms are unique and spacious.  We have stayed in both of the balcony rooms that overlook the main road (PCH).  Love all the light brought into those two rooms from the skylights.  And we love having a gas fireplace.  Our room had two mini fridges, a sink, dishes, microwave, coffee pot and a small stovetop too.  You could easily cook a meal in one of these rooms.  The parking is under the rooms, which are all on the second floor and there is no elevator available.   The parking is gated off and secure.  There are 14 rooms and there is a hot tub for everyone to use out on the second floor patio along with lounge chair for sunbathing or relaxing and a grill and table with chairs.  Ralph's grocery store is a very short walk if you need to get supplies for your room.  There is a bar of soap, shampoo and conditioner in your room already.  Beach towels are provided in your room.  There are some beach chairs you can borrow too down by the office.  It's an easy walk into downtown Laguna where shops and restaurants are.  Also you can walk down to the main beach from here.  And you can walk along the boardwalk at the beach and follow the path...This is our 3rd stay in Laguna and our 3rd stay at 14West.  We have loved it since the first time we stayed here.  The rooms are unique and spacious.  We have stayed in both of the balcony rooms that overlook the main road (PCH).  Love all the light brought into those two rooms from the skylights.  And we love having a gas fireplace.  Our room had two mini fridges, a sink, dishes, microwave, coffee pot and a small stovetop too.  You could easily cook a meal in one of these rooms.  The parking is under the rooms, which are all on the second floor and there is no elevator available.   The parking is gated off and secure.  There are 14 rooms and there is a hot tub for everyone to use out on the second floor patio along with lounge chair for sunbathing or relaxing and a grill and table with chairs.  Ralph's grocery store is a very short walk if you need to get supplies for your room.  There is a bar of soap, shampoo and conditioner in your room already.  Beach towels are provided in your room.  There are some beach chairs you can borrow too down by the office.  It's an easy walk into downtown Laguna where shops and restaurants are.  Also you can walk down to the main beach from here.  And you can walk along the boardwalk at the beach and follow the path up the cliffside to Heisler Park where the views are just outstanding throughout the day and especially at sunset.  The nearest restaurant is The Orange Inn across the street, which is good to get coffee from also.  We will always plan to stay here when in Laguna.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is our 3rd stay in Laguna and our 3rd stay at 14West.  We have loved it since the first time we stayed here.  The rooms are unique and spacious.  We have stayed in both of the balcony rooms that overlook the main road (PCH).  Love all the light brought into those two rooms from the skylights.  And we love having a gas fireplace.  Our room had two mini fridges, a sink, dishes, microwave, coffee pot and a small stovetop too.  You could easily cook a meal in one of these rooms.  The parking is under the rooms, which are all on the second floor and there is no elevator available.   The parking is gated off and secure.  There are 14 rooms and there is a hot tub for everyone to use out on the second floor patio along with lounge chair for sunbathing or relaxing and a grill and table with chairs.  Ralph's grocery store is a very short walk if you need to get supplies for your room.  There is a bar of soap, shampoo and conditioner in your room already.  Beach towels are provided in your room.  There are some beach chairs you can borrow too down by the office.  It's an easy walk into downtown Laguna where shops and restaurants are.  Also you can walk down to the main beach from here.  And you can walk along the boardwalk at the beach and follow the path...This is our 3rd stay in Laguna and our 3rd stay at 14West.  We have loved it since the first time we stayed here.  The rooms are unique and spacious.  We have stayed in both of the balcony rooms that overlook the main road (PCH).  Love all the light brought into those two rooms from the skylights.  And we love having a gas fireplace.  Our room had two mini fridges, a sink, dishes, microwave, coffee pot and a small stovetop too.  You could easily cook a meal in one of these rooms.  The parking is under the rooms, which are all on the second floor and there is no elevator available.   The parking is gated off and secure.  There are 14 rooms and there is a hot tub for everyone to use out on the second floor patio along with lounge chair for sunbathing or relaxing and a grill and table with chairs.  Ralph's grocery store is a very short walk if you need to get supplies for your room.  There is a bar of soap, shampoo and conditioner in your room already.  Beach towels are provided in your room.  There are some beach chairs you can borrow too down by the office.  It's an easy walk into downtown Laguna where shops and restaurants are.  Also you can walk down to the main beach from here.  And you can walk along the boardwalk at the beach and follow the path up the cliffside to Heisler Park where the views are just outstanding throughout the day and especially at sunset.  The nearest restaurant is The Orange Inn across the street, which is good to get coffee from also.  We will always plan to stay here when in Laguna.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r345982719-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>345982719</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>An ok place</t>
+  </si>
+  <si>
+    <t>We have stayed at 14 West either 3 or 4 times. While I like the uniqueness of the hotel, I think it is pretty expensive for what you get when they add $15 per day for parking. This is the first time the fee was added even though it always stated it on the reservation. I think time is beginning to take its toll because the room showed serious signs of wear. The room, while not dirty, was not immaculate. You do get a lot of space and a secure parking spot and the office staff was very nice and accommodating, just I think it's a lot for what you getMoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at 14 West either 3 or 4 times. While I like the uniqueness of the hotel, I think it is pretty expensive for what you get when they add $15 per day for parking. This is the first time the fee was added even though it always stated it on the reservation. I think time is beginning to take its toll because the room showed serious signs of wear. The room, while not dirty, was not immaculate. You do get a lot of space and a secure parking spot and the office staff was very nice and accommodating, just I think it's a lot for what you getMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r342948104-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>342948104</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Fantastic (almost) Hidden Gem</t>
+  </si>
+  <si>
+    <t>Modern, clean, large rooms with an overlook of the PCH towards the ocean. A surprise find and definitely recommend. Park in the secured garage and explore all the sights of Laguna Beach on foot. The design of the room is not the standard same as every other hotel design. Large siting area, with a kitchenette and open feel. Two added bonuses are the modern clean bathroom and large closet space. The soaking/spa tub has an adjustable shower head so anyone over 6' does not have to contort and lots of space for your things. An added bonus is the balcony in the room I was fortunate to get. Sit and watch the sights (people and cars going by) is incredible. Quiet as well, even being on the PCH. An added extra that's just about priceless. The staff is also very nice and helpful. Overall a great stay at a great place.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Modern, clean, large rooms with an overlook of the PCH towards the ocean. A surprise find and definitely recommend. Park in the secured garage and explore all the sights of Laguna Beach on foot. The design of the room is not the standard same as every other hotel design. Large siting area, with a kitchenette and open feel. Two added bonuses are the modern clean bathroom and large closet space. The soaking/spa tub has an adjustable shower head so anyone over 6' does not have to contort and lots of space for your things. An added bonus is the balcony in the room I was fortunate to get. Sit and watch the sights (people and cars going by) is incredible. Quiet as well, even being on the PCH. An added extra that's just about priceless. The staff is also very nice and helpful. Overall a great stay at a great place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r328629140-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>328629140</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Boutique unique but...</t>
+  </si>
+  <si>
+    <t>Laguna Beach is one of my favorite places in the world. Beautiful and eclectic, it offers a feast for the eyes around each corner. Having said that, this "apart-hotel" almost hits the mark. With shops and local transportation nearby, the location is ideal. Parking is convenient and check in is easy. A Ralph's market is a block away and some of the best restaurants are nearby. The room was spacious with a kitchenette and fireplace. The beds were comfortable and the price was reasonable. Unfortunately, something needs to be done about the façade. The street level needs some help with accumulated trash and a closed bar next door looking quite dilapidated. There were teens sneaking in and out of the parking structure and going to a party in one of the units--perhaps a lapse in security or a need to make access to rooms more secure. Also, our room had a long skylight which made sleeping past dawn almost impossible. This might be great for some but I don't think I will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Laguna Beach is one of my favorite places in the world. Beautiful and eclectic, it offers a feast for the eyes around each corner. Having said that, this "apart-hotel" almost hits the mark. With shops and local transportation nearby, the location is ideal. Parking is convenient and check in is easy. A Ralph's market is a block away and some of the best restaurants are nearby. The room was spacious with a kitchenette and fireplace. The beds were comfortable and the price was reasonable. Unfortunately, something needs to be done about the façade. The street level needs some help with accumulated trash and a closed bar next door looking quite dilapidated. There were teens sneaking in and out of the parking structure and going to a party in one of the units--perhaps a lapse in security or a need to make access to rooms more secure. Also, our room had a long skylight which made sleeping past dawn almost impossible. This might be great for some but I don't think I will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r327442836-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>327442836</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Getaway</t>
+  </si>
+  <si>
+    <t>The room was clean and nicely appointed. The hotel sent me a text and email the day of our arrival to give us the details of our stay such as the gate and room door code. I like that I didn't have to check-in at a front desk. The hotel has a nice common area with seating, a grill and outdoor heaters. It is located just across the street from the ocean via two flights of steep stairs. There are gas stations, groceries, food and drink, all within walking distance from the hotel. I will definitely come back to stay here in the future!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r324032494-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>324032494</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>Potentially nice hotel, ruined by poor maintenance</t>
+  </si>
+  <si>
+    <t>At even a Motel 6 I expect a few things to be working: TV, toilet and shower.14 West had 1/3 of those for $245/night.The TV receiver was behind the closet wall with no way to change the channel or move the receiver! The HDMI cable was also damaged. Instead of fixing this, 14 West has a paper apologizing for it. What the...?!The toilet chain was broken. Management was quick to "fix" the toilet chain, but the chain was just reattached to the toilet flapper and it still had to be manually closed in order for the reservoir to fill. Also, the toilet paper holder was just dangling from the wall.Housekeeping never came and the tiny trash did not help that situation.Also, I requested "Room 8" 2 months in advance for my honeymoon, but did not receive it. Maybe it was booked, but I doubt it.On the plus side, the bed was very comfortable, the location is good, they had a full kitchen and the design was nice. I will give them a star for that.In retrospect, I should have paid the same amount for an upgraded unit with an ocean view at Pacific Edge across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>At even a Motel 6 I expect a few things to be working: TV, toilet and shower.14 West had 1/3 of those for $245/night.The TV receiver was behind the closet wall with no way to change the channel or move the receiver! The HDMI cable was also damaged. Instead of fixing this, 14 West has a paper apologizing for it. What the...?!The toilet chain was broken. Management was quick to "fix" the toilet chain, but the chain was just reattached to the toilet flapper and it still had to be manually closed in order for the reservoir to fill. Also, the toilet paper holder was just dangling from the wall.Housekeeping never came and the tiny trash did not help that situation.Also, I requested "Room 8" 2 months in advance for my honeymoon, but did not receive it. Maybe it was booked, but I doubt it.On the plus side, the bed was very comfortable, the location is good, they had a full kitchen and the design was nice. I will give them a star for that.In retrospect, I should have paid the same amount for an upgraded unit with an ocean view at Pacific Edge across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r307947040-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>307947040</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Will Stay Again!</t>
+  </si>
+  <si>
+    <t>First the location of the boutique hotel is very close to the center of downtown Laguna Beach, Ca. Easy walking to all sites. Parking is gated and under the hotel. It is also covered. There are only 14 rooms on the second floor and in the center of the rooms is a very nice area to lounge or enjoy the spa. The rooms are very nice, very clean and roomy. There is a small kitchen with microwave refrigerator sink glasses etc. Good dressing area, nice bath and large walk in closet with shelves. The floor is title and the deco is very appealing. Air conditioning is wonderful. We very much enjoyed this property and will stay there from now on. We just live about 40 miles away so we visit Laguna often. This place is excelling!!!!!! Very clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>First the location of the boutique hotel is very close to the center of downtown Laguna Beach, Ca. Easy walking to all sites. Parking is gated and under the hotel. It is also covered. There are only 14 rooms on the second floor and in the center of the rooms is a very nice area to lounge or enjoy the spa. The rooms are very nice, very clean and roomy. There is a small kitchen with microwave refrigerator sink glasses etc. Good dressing area, nice bath and large walk in closet with shelves. The floor is title and the deco is very appealing. Air conditioning is wonderful. We very much enjoyed this property and will stay there from now on. We just live about 40 miles away so we visit Laguna often. This place is excelling!!!!!! Very clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r304042504-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>304042504</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>New Experience</t>
+  </si>
+  <si>
+    <t>Loved the hotel! This was a new experience because I am used to the full emminities, you know the concierge, front desk, or just in general personnel that are around. Don't be shocked, but this hotel does not have them. And guess what? They were not missed at all. Because in lieu of that you got a great room at a great price just steps away from the beach. I want to go back soon and I hope nothing has changed!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r298485376-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>298485376</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Intimate &amp; Modern Hotel</t>
+  </si>
+  <si>
+    <t>The parking garage is located on the street level where the office is. We had no problem parking our large SUV and we never saw the lot full. The lot seemed secured and safe. We did have a bit of trouble getting into the lot because we needed a code to enter and was unable to get anyone via the box to tell us how to get in. Luckily, another guest shouted the code to us. Upon getting to the room, it was a little strange to have other guests lounging outside our room as the lounge chairs are in the central courtyard, however the other guests were generally friendly and it turned out not to be a problem. The room had modern decor with some quirks such as the cable box being in the closet, but the room was a good size and had a nice seating area. I did have issues with the iron and mini ironing board as the iron constantly spewed water all over my shirt and a full sized ironing board would've been ideal. Overall, it was an enjoyable stay and I'd definitely stay again if ever in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>The parking garage is located on the street level where the office is. We had no problem parking our large SUV and we never saw the lot full. The lot seemed secured and safe. We did have a bit of trouble getting into the lot because we needed a code to enter and was unable to get anyone via the box to tell us how to get in. Luckily, another guest shouted the code to us. Upon getting to the room, it was a little strange to have other guests lounging outside our room as the lounge chairs are in the central courtyard, however the other guests were generally friendly and it turned out not to be a problem. The room had modern decor with some quirks such as the cable box being in the closet, but the room was a good size and had a nice seating area. I did have issues with the iron and mini ironing board as the iron constantly spewed water all over my shirt and a full sized ironing board would've been ideal. Overall, it was an enjoyable stay and I'd definitely stay again if ever in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r270221002-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>270221002</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Affordable Luxury!</t>
+  </si>
+  <si>
+    <t>14 West is a boutique hotel with beautiful, large rooms. There is a shared outdoor deck for sun bathing, cooking on the grill, or just hanging out with friends. Each room has a unique decor and are well designed with kitchenettes and fireplaces. Showers are great and the bed is a true comfort. Great location in the center of the Laguna strip and across the street from one of the best beaches. I will only stay at 14 West when I return to Laguna Beach.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r265270935-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>265270935</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Interesting hotel in laguna</t>
+  </si>
+  <si>
+    <t>This boutique property is a converted apt./condo  complex  5 blocks from the center of town.no real amenities to speak of. You have to know this going in..... Nice modern room with large flat screen, fireplace, full kitchen with utensils etc... common area has nice deck with a grill. 1 block from the grocery store. the staff was extreamly helpful.. even helped me with some  documents that i needed to send... and housekeeping staff was wonderful. This property makes you feel that you are part of Laguna rather than just a guest. Only downside of property is that it is a little depressing going through the parking garage, up the stairs to get to your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>This boutique property is a converted apt./condo  complex  5 blocks from the center of town.no real amenities to speak of. You have to know this going in..... Nice modern room with large flat screen, fireplace, full kitchen with utensils etc... common area has nice deck with a grill. 1 block from the grocery store. the staff was extreamly helpful.. even helped me with some  documents that i needed to send... and housekeeping staff was wonderful. This property makes you feel that you are part of Laguna rather than just a guest. Only downside of property is that it is a little depressing going through the parking garage, up the stairs to get to your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r262973844-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>262973844</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Amazing room, fabulous vacation, couldn't ask for more!</t>
+  </si>
+  <si>
+    <t>What a great location in Laguna.  You can walk either way and find great beaches, restaurants and shopping.  This is our second stay here and we couldn't be happier with the place.  Great rooftop terrace and lounge chairs to relax, or grill out dinner.  Our room was #8 and it reminded me of being on a luxurious yacht with all the wood and curved wood ceiling.  Modern decor and I like it. The office lady that was there was super friendly.  THe complex is gated so you have to have a code to get in and out.  THe garage is tight, so I recommend a small car when staying here.  Right across the street is a great place to eat called The Orange Inn.  The best part is how early they open, like 530.  That's great for us that are on a 3 hour time difference change and need coffee!  Loved our stay here once again and I can't imagine every staying anywhere else when in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>What a great location in Laguna.  You can walk either way and find great beaches, restaurants and shopping.  This is our second stay here and we couldn't be happier with the place.  Great rooftop terrace and lounge chairs to relax, or grill out dinner.  Our room was #8 and it reminded me of being on a luxurious yacht with all the wood and curved wood ceiling.  Modern decor and I like it. The office lady that was there was super friendly.  THe complex is gated so you have to have a code to get in and out.  THe garage is tight, so I recommend a small car when staying here.  Right across the street is a great place to eat called The Orange Inn.  The best part is how early they open, like 530.  That's great for us that are on a 3 hour time difference change and need coffee!  Loved our stay here once again and I can't imagine every staying anywhere else when in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r257670001-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>257670001</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Modern Room, Lots of Space</t>
+  </si>
+  <si>
+    <t>The Skinny:Parking - $15/day, covered (under hotel), tight squeezeDecor- modern, clean linesService- friendly front deskTowels - softBath Products - LatherSheets- sort of scratchy but not bad, bed was comfyBonus- fireplace in room, beach towels and chairs availWe stayed one night here at 14 West and were very pleased with the location. It's literally a 5 min walk to the main downtown Laguna area with all of the shops and dining. You can access the beach across the street as well. The room is huge (#3) and when we got there early at 1pm they let us check in then which was super nice. There is a kitchenette with everything you need if you want to cook and store food. Our microwave wasn't working but that was okay, I just used the stove to reheat leftovers. The closet is very big if you have a lot of stuff and there is a jacuzzi and a BBQ area outside the rooms. It was very quiet at night but around 9am we could here people talking outside. The road is pretty loud so just ask for a room towards the back of the hotel. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>The Skinny:Parking - $15/day, covered (under hotel), tight squeezeDecor- modern, clean linesService- friendly front deskTowels - softBath Products - LatherSheets- sort of scratchy but not bad, bed was comfyBonus- fireplace in room, beach towels and chairs availWe stayed one night here at 14 West and were very pleased with the location. It's literally a 5 min walk to the main downtown Laguna area with all of the shops and dining. You can access the beach across the street as well. The room is huge (#3) and when we got there early at 1pm they let us check in then which was super nice. There is a kitchenette with everything you need if you want to cook and store food. Our microwave wasn't working but that was okay, I just used the stove to reheat leftovers. The closet is very big if you have a lot of stuff and there is a jacuzzi and a BBQ area outside the rooms. It was very quiet at night but around 9am we could here people talking outside. The road is pretty loud so just ask for a room towards the back of the hotel. I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r257414095-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>257414095</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>This was our first trip to Laguna Beach.  14 West was recommended by a co-worker.  We enjoyed our stay.  My only complaint is that the bed was squeaky.  Every time we moved it would squeak.  That's a pretty minor problem.  Well, one other thing...it's a little odd to have to point the TV remote toward the closet to change channels but once you get used to how to do it it's not a problem.  The location of the hotel is perfect.  We can be on the beach in in a 3 minute walk and shopping or eating in the Downtown area in 5 minutes.  We will stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r255526856-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>255526856</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>AWESOME</t>
+  </si>
+  <si>
+    <t>This place was awesome. Clean, excellent location, amenities such as ice, hot tub, bbq not to mention steps from the beach and Ralphs the local grocery store. NO street noise and ample parking. We visited Knottsberry, Disneyland and San Diego Zoo all with a toddler in tow! They even provide beach chairs and towels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r249889309-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>249889309</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Absolutely loved our stay here</t>
+  </si>
+  <si>
+    <t>We stayed at the 14 West this weekend because my son was getting married in Laguna.  His future wife was the one who found the hotel and booked it for us.  What a lovely experience this was. All the rooms are very unique, immaculate and comfortable. When we arrived, the receptionist was upstairs and was so accommodating. She gave us the keys to our rooms (we needed an early check in because the wedding was at 3:30) without signing in, car info..... And she was kind enough to let my daughter into our room when she arrived so we could grab a quick lunch.  The location is excellent for staying in Laguna Beach.  You have everything you need in these rooms...actually two small refrigerator/freezers.  Cannot say enough good things about this hotel.  We would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the 14 West this weekend because my son was getting married in Laguna.  His future wife was the one who found the hotel and booked it for us.  What a lovely experience this was. All the rooms are very unique, immaculate and comfortable. When we arrived, the receptionist was upstairs and was so accommodating. She gave us the keys to our rooms (we needed an early check in because the wedding was at 3:30) without signing in, car info..... And she was kind enough to let my daughter into our room when she arrived so we could grab a quick lunch.  The location is excellent for staying in Laguna Beach.  You have everything you need in these rooms...actually two small refrigerator/freezers.  Cannot say enough good things about this hotel.  We would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r247352508-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>247352508</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Single stay in Laguna</t>
+  </si>
+  <si>
+    <t>Great location, modern, clean and new hotel. Rooms are on the second floor and must take steps to get to them so not good for strollers - we have a child so noticed this for a next visit. We loved the views, decor and location. The staff was helpful as well. We would recommend this hotel for singles or couples traveling to the Laguna Beach area.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r246577321-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>246577321</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Great bed good location</t>
+  </si>
+  <si>
+    <t>14 West was very convenient when visiting Laguna Beach. We stayed in room 10 which had a very comfortable bed and comfortable pillows. There was a fireplace which was nice and there was plenty of room. The cable box was in the closet which was a bit inconvenient. We would stay at this location again, it was very clean and also had a whirlpool that was available.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r233561172-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>233561172</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Great Place to Stay on the Beach in Laguna</t>
+  </si>
+  <si>
+    <t>We stayed for the first time at 14 West last month.  We had always stayed at hotels that were 3 times the price of 14 West and not on the beach.  We really like this place. So, things to know when you check in.  There is a small gate that you must get a code for to get in to the parking garage, ideally check in at 3pm and there should be somebody in the office to let you in.  Additionally, there is no elevator, so you must take luggage upstairs, something to consider for those not able to navigate stairs.We checked in to a lovely room, got unpacked only to discover that the TV was not in working condition.  Hours later, we finally had to move to another upgraded room, and they brought us a nice bottle of wine to relax.  We loved being on the front of the hotel with a deck and never noticed any traffic noise.  Bathroom is great, closet is very large, 2 refrigerators, sink, plates and utensils were all there.  We had no issues making our bed and asking for extra towels if we needed them.   There is a Ralph's supermarket around the corner, several places to wash clothes around the corner, all kinds of restaurants, within walking distance, so convenient.  Close to the beach and the hop on/hop off tram as well.  We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We stayed for the first time at 14 West last month.  We had always stayed at hotels that were 3 times the price of 14 West and not on the beach.  We really like this place. So, things to know when you check in.  There is a small gate that you must get a code for to get in to the parking garage, ideally check in at 3pm and there should be somebody in the office to let you in.  Additionally, there is no elevator, so you must take luggage upstairs, something to consider for those not able to navigate stairs.We checked in to a lovely room, got unpacked only to discover that the TV was not in working condition.  Hours later, we finally had to move to another upgraded room, and they brought us a nice bottle of wine to relax.  We loved being on the front of the hotel with a deck and never noticed any traffic noise.  Bathroom is great, closet is very large, 2 refrigerators, sink, plates and utensils were all there.  We had no issues making our bed and asking for extra towels if we needed them.   There is a Ralph's supermarket around the corner, several places to wash clothes around the corner, all kinds of restaurants, within walking distance, so convenient.  Close to the beach and the hop on/hop off tram as well.  We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r229787404-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>229787404</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Interior was nice &amp; new</t>
+  </si>
+  <si>
+    <t>I really liked my stay at 14 West.  The garage and instructions after hours are easy to follow. My only complaint would be that I faced PCH and it was very loud.  Also I was in room number 8, and my room never really completely got dark.  They do a refresh service, but I didn't get any new toiletries.  The bed and pillows were super comfortable.  The air conditioner worked well and there was even a fireplace.  The location is easy walking distance to main beach and tons of restaurants!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r221675501-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>221675501</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Not for everyone.</t>
+  </si>
+  <si>
+    <t>My husband and I spent 4 nights here and chose it primarily for the location and price. The 14 rooms are all on a second floor above a gated parking garage with two sets of stairs but no elevator.  This is something to consider for a person with a disability or when toting a lot of luggage. The building was initially designed for small professional offices but has been repurposed as small studios. There is an inner court yard with a gas grill,  chaises, and dining table with chairs. In the back of the courtyard is a walled smoking area and an older hot tub.
+The furnishings are contemporary and reminded me of Ikea--functional and sleek. The kitchenette has a two burner ceramic top, two dorm size refrigerators,  microwave,  toaster and coffeemaker. There are dishes, two place settings of utensils,  a frying pan and small sauce pan, wine and beverage glasses. The bathroom is small and we found that if we placed dirty towels on the floor in the morning they were replaced. The rooms are "refreshed" by the staff in the morning which means fresh towels and the bed gets made. But you need to hand wash your own dishes in the tiny sink and I am not sure if the previous guests in our room had done this very well.
+The rooms have a gas fireplace and tv but we had trouble with the remote and couldn't fix...My husband and I spent 4 nights here and chose it primarily for the location and price. The 14 rooms are all on a second floor above a gated parking garage with two sets of stairs but no elevator.  This is something to consider for a person with a disability or when toting a lot of luggage. The building was initially designed for small professional offices but has been repurposed as small studios. There is an inner court yard with a gas grill,  chaises, and dining table with chairs. In the back of the courtyard is a walled smoking area and an older hot tub.The furnishings are contemporary and reminded me of Ikea--functional and sleek. The kitchenette has a two burner ceramic top, two dorm size refrigerators,  microwave,  toaster and coffeemaker. There are dishes, two place settings of utensils,  a frying pan and small sauce pan, wine and beverage glasses. The bathroom is small and we found that if we placed dirty towels on the floor in the morning they were replaced. The rooms are "refreshed" by the staff in the morning which means fresh towels and the bed gets made. But you need to hand wash your own dishes in the tiny sink and I am not sure if the previous guests in our room had done this very well.The rooms have a gas fireplace and tv but we had trouble with the remote and couldn't fix it. The closet is only big enough for one person to go in at a time but there are shelves built in. We agree with other reviews that mentioned the foot traffic and voices outside. The skylights are nice in the daytime but they made it difficult to sleep as did the porch light outside each door.  There were some beach items but only a couple of them so it would be better to bring your own. Free wi fi; parking is $12 a day but worth it since it is gate enclosed and there is hardly any parking on the street.During the summer there is a free shuttle so you can get to the shops and Pageant of the Masters without driving. There is a shuttle stop a half block away. Beaches are a short drive away ( we liked Aliso Beach--easy to drive to 10 minutes north with bathrooms and snack bar).If you are looking for a place that's cheaper than the big hotels this is a good choice.  We ate most breakfasts at the outdoor dining table and didn't mind not having a big kitchen. But the property is showing its age with the hot tub and beach items, and the  ttowels and kitchen items could use replacing. We would not stay here again but it was ok once and not a disaster.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>My husband and I spent 4 nights here and chose it primarily for the location and price. The 14 rooms are all on a second floor above a gated parking garage with two sets of stairs but no elevator.  This is something to consider for a person with a disability or when toting a lot of luggage. The building was initially designed for small professional offices but has been repurposed as small studios. There is an inner court yard with a gas grill,  chaises, and dining table with chairs. In the back of the courtyard is a walled smoking area and an older hot tub.
+The furnishings are contemporary and reminded me of Ikea--functional and sleek. The kitchenette has a two burner ceramic top, two dorm size refrigerators,  microwave,  toaster and coffeemaker. There are dishes, two place settings of utensils,  a frying pan and small sauce pan, wine and beverage glasses. The bathroom is small and we found that if we placed dirty towels on the floor in the morning they were replaced. The rooms are "refreshed" by the staff in the morning which means fresh towels and the bed gets made. But you need to hand wash your own dishes in the tiny sink and I am not sure if the previous guests in our room had done this very well.
+The rooms have a gas fireplace and tv but we had trouble with the remote and couldn't fix...My husband and I spent 4 nights here and chose it primarily for the location and price. The 14 rooms are all on a second floor above a gated parking garage with two sets of stairs but no elevator.  This is something to consider for a person with a disability or when toting a lot of luggage. The building was initially designed for small professional offices but has been repurposed as small studios. There is an inner court yard with a gas grill,  chaises, and dining table with chairs. In the back of the courtyard is a walled smoking area and an older hot tub.The furnishings are contemporary and reminded me of Ikea--functional and sleek. The kitchenette has a two burner ceramic top, two dorm size refrigerators,  microwave,  toaster and coffeemaker. There are dishes, two place settings of utensils,  a frying pan and small sauce pan, wine and beverage glasses. The bathroom is small and we found that if we placed dirty towels on the floor in the morning they were replaced. The rooms are "refreshed" by the staff in the morning which means fresh towels and the bed gets made. But you need to hand wash your own dishes in the tiny sink and I am not sure if the previous guests in our room had done this very well.The rooms have a gas fireplace and tv but we had trouble with the remote and couldn't fix it. The closet is only big enough for one person to go in at a time but there are shelves built in. We agree with other reviews that mentioned the foot traffic and voices outside. The skylights are nice in the daytime but they made it difficult to sleep as did the porch light outside each door.  There were some beach items but only a couple of them so it would be better to bring your own. Free wi fi; parking is $12 a day but worth it since it is gate enclosed and there is hardly any parking on the street.During the summer there is a free shuttle so you can get to the shops and Pageant of the Masters without driving. There is a shuttle stop a half block away. Beaches are a short drive away ( we liked Aliso Beach--easy to drive to 10 minutes north with bathrooms and snack bar).If you are looking for a place that's cheaper than the big hotels this is a good choice.  We ate most breakfasts at the outdoor dining table and didn't mind not having a big kitchen. But the property is showing its age with the hot tub and beach items, and the  ttowels and kitchen items could use replacing. We would not stay here again but it was ok once and not a disaster.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r219928949-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>219928949</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>'wish it was all positive</t>
+  </si>
+  <si>
+    <t>We were very excited to start our staycation in Laguna Beach knowing 14 West had great reviews and nice pics.
+From Los Angeles, we arrived at 3pm Sunday to check-in...so dissappointed, the room wasn't ready until almost 4pm.  Keep in mind there are only 14 rooms and check out is 11am.
+We didn't complain and decided to go for a walk.  We were told we would be called when the room was clean...no call came! They forgot or were too busy.  Either way, first impression wasn't good.  We were allowed to leave our bags in the closet but seeing the room a mess wasn't a smart thing.
+We quickly realized that our room had absolutely no windows!  Yes, the sky roof and the glass door gave a lot of  light.  However, to be near the beach was a real bummer that a window breeze nor a view was none to have.   Luckily the air condition worked great!  The towels looked very worn out (thin &amp; faded)...thank goodness the bedding was very nice!  The floors were very gritty from beach sand which made us feel the floors weren't clean...but its the beach:)  Overall condition of the room was good &amp; new.
+The other undesirable thing was the cleaning supplies that were parked across our door.  Everytime we opened the door, we see outside a broom, dust pan &amp; trash can....not a pretty sight.  It was there the entire time.
+The location...We were very excited to start our staycation in Laguna Beach knowing 14 West had great reviews and nice pics.From Los Angeles, we arrived at 3pm Sunday to check-in...so dissappointed, the room wasn't ready until almost 4pm.  Keep in mind there are only 14 rooms and check out is 11am.We didn't complain and decided to go for a walk.  We were told we would be called when the room was clean...no call came! They forgot or were too busy.  Either way, first impression wasn't good.  We were allowed to leave our bags in the closet but seeing the room a mess wasn't a smart thing.We quickly realized that our room had absolutely no windows!  Yes, the sky roof and the glass door gave a lot of  light.  However, to be near the beach was a real bummer that a window breeze nor a view was none to have.   Luckily the air condition worked great!  The towels looked very worn out (thin &amp; faded)...thank goodness the bedding was very nice!  The floors were very gritty from beach sand which made us feel the floors weren't clean...but its the beach:)  Overall condition of the room was good &amp; new.The other undesirable thing was the cleaning supplies that were parked across our door.  Everytime we opened the door, we see outside a broom, dust pan &amp; trash can....not a pretty sight.  It was there the entire time.The location was great...we walked all over the place.  They recommend to have breakfast across the street, Orange Cafe...Yikes, it wasn't good especially for the price (a basic breakfast sandwich is $10)...I would recommend going to the Hiedleberg Cafe (3 blocks south)...soooo much better!!! Fresh OJ, gourmet coffee, omelettes at the same price!!!'Wish it was all positive!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were very excited to start our staycation in Laguna Beach knowing 14 West had great reviews and nice pics.
+From Los Angeles, we arrived at 3pm Sunday to check-in...so dissappointed, the room wasn't ready until almost 4pm.  Keep in mind there are only 14 rooms and check out is 11am.
+We didn't complain and decided to go for a walk.  We were told we would be called when the room was clean...no call came! They forgot or were too busy.  Either way, first impression wasn't good.  We were allowed to leave our bags in the closet but seeing the room a mess wasn't a smart thing.
+We quickly realized that our room had absolutely no windows!  Yes, the sky roof and the glass door gave a lot of  light.  However, to be near the beach was a real bummer that a window breeze nor a view was none to have.   Luckily the air condition worked great!  The towels looked very worn out (thin &amp; faded)...thank goodness the bedding was very nice!  The floors were very gritty from beach sand which made us feel the floors weren't clean...but its the beach:)  Overall condition of the room was good &amp; new.
+The other undesirable thing was the cleaning supplies that were parked across our door.  Everytime we opened the door, we see outside a broom, dust pan &amp; trash can....not a pretty sight.  It was there the entire time.
+The location...We were very excited to start our staycation in Laguna Beach knowing 14 West had great reviews and nice pics.From Los Angeles, we arrived at 3pm Sunday to check-in...so dissappointed, the room wasn't ready until almost 4pm.  Keep in mind there are only 14 rooms and check out is 11am.We didn't complain and decided to go for a walk.  We were told we would be called when the room was clean...no call came! They forgot or were too busy.  Either way, first impression wasn't good.  We were allowed to leave our bags in the closet but seeing the room a mess wasn't a smart thing.We quickly realized that our room had absolutely no windows!  Yes, the sky roof and the glass door gave a lot of  light.  However, to be near the beach was a real bummer that a window breeze nor a view was none to have.   Luckily the air condition worked great!  The towels looked very worn out (thin &amp; faded)...thank goodness the bedding was very nice!  The floors were very gritty from beach sand which made us feel the floors weren't clean...but its the beach:)  Overall condition of the room was good &amp; new.The other undesirable thing was the cleaning supplies that were parked across our door.  Everytime we opened the door, we see outside a broom, dust pan &amp; trash can....not a pretty sight.  It was there the entire time.The location was great...we walked all over the place.  They recommend to have breakfast across the street, Orange Cafe...Yikes, it wasn't good especially for the price (a basic breakfast sandwich is $10)...I would recommend going to the Hiedleberg Cafe (3 blocks south)...soooo much better!!! Fresh OJ, gourmet coffee, omelettes at the same price!!!'Wish it was all positive!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r217707125-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>217707125</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>We stayed at 14 West for a week and loved every minute! We strongly suggest utilizing the grill and patio area as much as possible. Our room became our home for our stay. It is a quiet place to come home to. The staff members were all friendly and helpful throughout our stay. We plan to return to 14 West in the future!On a more critical note, the bathroom was smaller than expected. We also struggled changing the channel because the cable box was in the closet. This has clearly been an issue before because the staff provided very detailed directions how to run the cable. These cons did not effect our stay, we're just being picky. This is a great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at 14 West for a week and loved every minute! We strongly suggest utilizing the grill and patio area as much as possible. Our room became our home for our stay. It is a quiet place to come home to. The staff members were all friendly and helpful throughout our stay. We plan to return to 14 West in the future!On a more critical note, the bathroom was smaller than expected. We also struggled changing the channel because the cable box was in the closet. This has clearly been an issue before because the staff provided very detailed directions how to run the cable. These cons did not effect our stay, we're just being picky. This is a great place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r217595393-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>217595393</t>
+  </si>
+  <si>
+    <t>14 West is a good value in Laguna</t>
+  </si>
+  <si>
+    <t>14 West is a boutique style hotel. The room we had was small but comfortable. It is right across PCH from the beach at Cleo Street. It is within walking distance of everything you need  - food, bars, groceries, beach, shopping, downtown Laguna. We parked our car in the garage and left it there. We ate out for all our meals, but others used the gas grill on the deck to cook dinner. Good option if you are staying for more than few days.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r205232266-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>205232266</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>One of my favorite hotel experiences ever</t>
+  </si>
+  <si>
+    <t>Living in Los Angeles, my girlfriend and I decided to get away from the city for a night to celebrate our one year anniversary in the small town of Laguna Beach. We arrived late at around 9:00pm, reception was closed, but the manager had texted me instructions on how to get into the room. They had locked the key for us with a coded padlock on the door. The room was beautiful. We particularly chose this hotel because of the little kitchenette so I could cook some pasta. The bed was a Tempur-pedic, which felt wonderful. Everything was very modern and the fireplace really added to the romance of the room. We also got to use the hot tub at night, which was very clean. We also really liked all the mood lighting in the room. The bathroom and shower was large, modern and clean.I loved everything about my stay this place. I would highly recommend it to anyone looking for a quick getaway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Living in Los Angeles, my girlfriend and I decided to get away from the city for a night to celebrate our one year anniversary in the small town of Laguna Beach. We arrived late at around 9:00pm, reception was closed, but the manager had texted me instructions on how to get into the room. They had locked the key for us with a coded padlock on the door. The room was beautiful. We particularly chose this hotel because of the little kitchenette so I could cook some pasta. The bed was a Tempur-pedic, which felt wonderful. Everything was very modern and the fireplace really added to the romance of the room. We also got to use the hot tub at night, which was very clean. We also really liked all the mood lighting in the room. The bathroom and shower was large, modern and clean.I loved everything about my stay this place. I would highly recommend it to anyone looking for a quick getaway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r205145802-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>205145802</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>We recently stayed two nights at 14west and were extremely pleased.The rooms were very nice, spacious, clean and quiet. They have a kitchenette with fridge/freezer, microwave and stovetop which is nice if you want to save a bit and cook in the room. Tip, bring your own coffee, they have a coffee maker but do not provide coffee. The hotel has a great common area outside with lounge chairs, a BBQ and hottub, the perfect place to relax and unwind. The only nuisance we encountered was the room " refresh." They don't clean the rooms daily like most hotels but instead tidy up. They didn't leave new towels, new soaps or replenish the shampoo. Not a huge deal, but a hassle if you discover your out of something and the office is already closed. The location is perfect. Right across the street is access to the beach and all shops and restaurants are within walking distance. Overall this was a great place to stay. We would recommend it to anyone looking for a quiet , quaint, chic hotel away from the party scene in Laguna Beach. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed two nights at 14west and were extremely pleased.The rooms were very nice, spacious, clean and quiet. They have a kitchenette with fridge/freezer, microwave and stovetop which is nice if you want to save a bit and cook in the room. Tip, bring your own coffee, they have a coffee maker but do not provide coffee. The hotel has a great common area outside with lounge chairs, a BBQ and hottub, the perfect place to relax and unwind. The only nuisance we encountered was the room " refresh." They don't clean the rooms daily like most hotels but instead tidy up. They didn't leave new towels, new soaps or replenish the shampoo. Not a huge deal, but a hassle if you discover your out of something and the office is already closed. The location is perfect. Right across the street is access to the beach and all shops and restaurants are within walking distance. Overall this was a great place to stay. We would recommend it to anyone looking for a quiet , quaint, chic hotel away from the party scene in Laguna Beach. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r203309827-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>203309827</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Loved the 14 West</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights last December just prior to Christmas and had a fantastic time. It was during a 3 week stay in CA and so the more independent style was actually a welcome break from the larger hotels with concierges etc. in our other stopover spots. The room was immaculate and the location was brilliant. The price for the stay (and the parking!) was highly competitive and we took advantage of the fact that it's walking distance to everything Laguna Beach has to offer. We had a brilliant stay and so we've booked to go back again this December on our annual trip to SoCal.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r198910542-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>198910542</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Great getaway</t>
+  </si>
+  <si>
+    <t>This was a very boutique like hotel  with moder twist. The staff was friendly and the hotel had a great location. Walking distance to everywhere. I would want to stay again, but there are minimum rooms to reserve.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r198182400-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>198182400</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Location, location, location</t>
+  </si>
+  <si>
+    <t>In have stayed at 14 West several times over the past year or two and have had a lovely stay every time. Comfortable beds, nice outdoor space with a BBQ and the location could only be better if it was on the water. The kitchenette is super for those on a budget or who don't wish to eat in restaurants for every meal. The price-quality ratio cannot be beat. I have only had one hiccup while staying there. There was sand in the 2nd bed, which my friend discovered on her only night in town. We told the manager and she apologized profusely and said they would follow up. My advice? Check the covers. Other than that, this is a great place to stay in Laguna.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>In have stayed at 14 West several times over the past year or two and have had a lovely stay every time. Comfortable beds, nice outdoor space with a BBQ and the location could only be better if it was on the water. The kitchenette is super for those on a budget or who don't wish to eat in restaurants for every meal. The price-quality ratio cannot be beat. I have only had one hiccup while staying there. There was sand in the 2nd bed, which my friend discovered on her only night in town. We told the manager and she apologized profusely and said they would follow up. My advice? Check the covers. Other than that, this is a great place to stay in Laguna.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r198005440-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>198005440</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Modern rooms and great location!</t>
+  </si>
+  <si>
+    <t>This hotel was our home for 4 days. The rooms were very clean and modern, including a gas fireplace. The staff was very friendly and the hotel is located in a perfect location. The smell of the cleaning products was a little strong. It didn't bother us but something to take into consideration if you're sensitive to scents.Overall, highly recommended!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r194589270-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>194589270</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gem! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great room in a perfect location! With in walking distant of the beach with great shops around. Only thing that I would say they need to correct was the TV was hard to use due to the cable box being in the closest. Kitchenette was great to store cold items and make snacks. We will definitely be back. </t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r188819808-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>188819808</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>Homey, Boutique Hotel</t>
+  </si>
+  <si>
+    <t>I travel to Laguna/Newport area weekly for work and this is our teams favorite hotel. We have stayed at a handful of hotels in Laguna, Huntington and Newport but 14 West tops them all. You feel like you are in more of an apartment than a hotel. 
+If you are expecting a hotel with room service, a 24/7 front desk etc. this is not your place but if you are expecting a cute yet modern room that feels more like a home, where you feel can cook or walk to the many restaurants in Laguna this is your place. The rooms are large, each with a stove, very clean, and brand new. In the common area there's a BBQ and a big table to eat at. Carolyn (the owner) is very sweet and accommodating. She has beach toys/chairs for you to use. The hotel is across the street from the beach which at first we wanted something on the water but we loved the feel of the hotel so much that the rooms and common areas make up for the fact that it's not directly on the water. It is very easy to walk across the street to the beach, plus this hotel has a hot-tub. 
+Also for those of you worried about the hotel being on PCH, I'm a very light sleeper and I could not hear the road at all, very quite in all the rooms. I would...I travel to Laguna/Newport area weekly for work and this is our teams favorite hotel. We have stayed at a handful of hotels in Laguna, Huntington and Newport but 14 West tops them all. You feel like you are in more of an apartment than a hotel. If you are expecting a hotel with room service, a 24/7 front desk etc. this is not your place but if you are expecting a cute yet modern room that feels more like a home, where you feel can cook or walk to the many restaurants in Laguna this is your place. The rooms are large, each with a stove, very clean, and brand new. In the common area there's a BBQ and a big table to eat at. Carolyn (the owner) is very sweet and accommodating. She has beach toys/chairs for you to use. The hotel is across the street from the beach which at first we wanted something on the water but we loved the feel of the hotel so much that the rooms and common areas make up for the fact that it's not directly on the water. It is very easy to walk across the street to the beach, plus this hotel has a hot-tub. Also for those of you worried about the hotel being on PCH, I'm a very light sleeper and I could not hear the road at all, very quite in all the rooms. I would highly recommended this hotel to anyone looking for a boutique hotel getaway.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I travel to Laguna/Newport area weekly for work and this is our teams favorite hotel. We have stayed at a handful of hotels in Laguna, Huntington and Newport but 14 West tops them all. You feel like you are in more of an apartment than a hotel. 
+If you are expecting a hotel with room service, a 24/7 front desk etc. this is not your place but if you are expecting a cute yet modern room that feels more like a home, where you feel can cook or walk to the many restaurants in Laguna this is your place. The rooms are large, each with a stove, very clean, and brand new. In the common area there's a BBQ and a big table to eat at. Carolyn (the owner) is very sweet and accommodating. She has beach toys/chairs for you to use. The hotel is across the street from the beach which at first we wanted something on the water but we loved the feel of the hotel so much that the rooms and common areas make up for the fact that it's not directly on the water. It is very easy to walk across the street to the beach, plus this hotel has a hot-tub. 
+Also for those of you worried about the hotel being on PCH, I'm a very light sleeper and I could not hear the road at all, very quite in all the rooms. I would...I travel to Laguna/Newport area weekly for work and this is our teams favorite hotel. We have stayed at a handful of hotels in Laguna, Huntington and Newport but 14 West tops them all. You feel like you are in more of an apartment than a hotel. If you are expecting a hotel with room service, a 24/7 front desk etc. this is not your place but if you are expecting a cute yet modern room that feels more like a home, where you feel can cook or walk to the many restaurants in Laguna this is your place. The rooms are large, each with a stove, very clean, and brand new. In the common area there's a BBQ and a big table to eat at. Carolyn (the owner) is very sweet and accommodating. She has beach toys/chairs for you to use. The hotel is across the street from the beach which at first we wanted something on the water but we loved the feel of the hotel so much that the rooms and common areas make up for the fact that it's not directly on the water. It is very easy to walk across the street to the beach, plus this hotel has a hot-tub. Also for those of you worried about the hotel being on PCH, I'm a very light sleeper and I could not hear the road at all, very quite in all the rooms. I would highly recommended this hotel to anyone looking for a boutique hotel getaway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r188603360-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>188603360</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Modern, nice, but know what you're getting into...</t>
+  </si>
+  <si>
+    <t>14 West has a lot of perks and pros but it does have some issues. In addition, this was my first stay at a "boutique hotel" and there are some things to consider if you've never stayed at one. 
+Pros: 
+- Location - it's very close to the beach and very close to places to eat and shop. For most people, this is key and this place really gets you right where you want to be.
+- Modern - fixtures and furniture give a very chic feeling to the rooms
+- Amenities - kitchenette, walk in closet, seating areas, fireplace... fantastic!
+Cons: 
+- Staffing : the hotel is very small. It has a total of 14 rooms so naturally the staff is very small. Make sure you have everything you need from the staff (answers to questions, extra towels, issues with your room, etc.) from the hours of 9 to 5 because if you come back after dinner, they're not going to be there! There is an after hours number to call but there's a reasonable limit to what can be done after hours. This was something that, in hindsight, is pretty obvious with a small establishment, but at the time was pretty shocking. Most people are used to a 24 hour front desk staff at least.
+- Broken fixtures - We had a fairly large number of people staying here together so I did get to see a number...14 West has a lot of perks and pros but it does have some issues. In addition, this was my first stay at a "boutique hotel" and there are some things to consider if you've never stayed at one. Pros: - Location - it's very close to the beach and very close to places to eat and shop. For most people, this is key and this place really gets you right where you want to be.- Modern - fixtures and furniture give a very chic feeling to the rooms- Amenities - kitchenette, walk in closet, seating areas, fireplace... fantastic!Cons: - Staffing : the hotel is very small. It has a total of 14 rooms so naturally the staff is very small. Make sure you have everything you need from the staff (answers to questions, extra towels, issues with your room, etc.) from the hours of 9 to 5 because if you come back after dinner, they're not going to be there! There is an after hours number to call but there's a reasonable limit to what can be done after hours. This was something that, in hindsight, is pretty obvious with a small establishment, but at the time was pretty shocking. Most people are used to a 24 hour front desk staff at least.- Broken fixtures - We had a fairly large number of people staying here together so I did get to see a number of the rooms here. Everyone had one odd light bulb out or something didn't work, a drawer didn't open, or something like that. Unfortunately for us the light bulb that wasn't working was the one in the shower. The bathroom is very contemporary in decor so it was fairly dark in there to begin with. The lack of one out of the two light bulbs was an issue.- Parking costs - Be aware that there is an extra charge for parking your car! 14 West is enjoyable but do be aware that there are caveats.MoreShow less</t>
+  </si>
+  <si>
+    <t>14 West has a lot of perks and pros but it does have some issues. In addition, this was my first stay at a "boutique hotel" and there are some things to consider if you've never stayed at one. 
+Pros: 
+- Location - it's very close to the beach and very close to places to eat and shop. For most people, this is key and this place really gets you right where you want to be.
+- Modern - fixtures and furniture give a very chic feeling to the rooms
+- Amenities - kitchenette, walk in closet, seating areas, fireplace... fantastic!
+Cons: 
+- Staffing : the hotel is very small. It has a total of 14 rooms so naturally the staff is very small. Make sure you have everything you need from the staff (answers to questions, extra towels, issues with your room, etc.) from the hours of 9 to 5 because if you come back after dinner, they're not going to be there! There is an after hours number to call but there's a reasonable limit to what can be done after hours. This was something that, in hindsight, is pretty obvious with a small establishment, but at the time was pretty shocking. Most people are used to a 24 hour front desk staff at least.
+- Broken fixtures - We had a fairly large number of people staying here together so I did get to see a number...14 West has a lot of perks and pros but it does have some issues. In addition, this was my first stay at a "boutique hotel" and there are some things to consider if you've never stayed at one. Pros: - Location - it's very close to the beach and very close to places to eat and shop. For most people, this is key and this place really gets you right where you want to be.- Modern - fixtures and furniture give a very chic feeling to the rooms- Amenities - kitchenette, walk in closet, seating areas, fireplace... fantastic!Cons: - Staffing : the hotel is very small. It has a total of 14 rooms so naturally the staff is very small. Make sure you have everything you need from the staff (answers to questions, extra towels, issues with your room, etc.) from the hours of 9 to 5 because if you come back after dinner, they're not going to be there! There is an after hours number to call but there's a reasonable limit to what can be done after hours. This was something that, in hindsight, is pretty obvious with a small establishment, but at the time was pretty shocking. Most people are used to a 24 hour front desk staff at least.- Broken fixtures - We had a fairly large number of people staying here together so I did get to see a number of the rooms here. Everyone had one odd light bulb out or something didn't work, a drawer didn't open, or something like that. Unfortunately for us the light bulb that wasn't working was the one in the shower. The bathroom is very contemporary in decor so it was fairly dark in there to begin with. The lack of one out of the two light bulbs was an issue.- Parking costs - Be aware that there is an extra charge for parking your car! 14 West is enjoyable but do be aware that there are caveats.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r185193988-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>185193988</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Amaze-balls!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for our fifth anniversary trip the first week of November and loved everything about it!  The rooms are stylish and modern with great amenities, like the fireplace and kitchen. It's a perfect location too, walk-able to Cleo Street beach, tons of restaurants, shops, Ralph's, and galleries too.  Can't wait to go back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r182840136-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>182840136</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>WEEKEND GETAWAY</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel last week. Everything was great. Carolyn the office manager even carried our bags to the room. I would definitely stay here again.The  location is perfect where you can leave your car in a gated garage and walk everywhere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r180880801-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>180880801</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>Like Renting a Stylish Studio Apartment</t>
+  </si>
+  <si>
+    <t>My wife and I spent the weekend in Laguna Beach for her birthday and I booked this place based on the pictures of the amazing rooms. Room #7 was very nice with a very comfy tempur-pedic bed, kitchenette, and  big screen TV with HBO. The hotel is about a short block away from the Cliffs Restaurant so the location was very convenient. We are able to walk to the Kya Bistro in about 15 minutes. The wifi worked fine while we were there.
+Check-in time was 3:00 but our room wasn't ready until 4:00. No biggie as we just walked into town to do a little shopping and they called us when the room was ready. The light above the bathroom sink wasn't working so they put in a little desk lamp which was fine for washing hands but, not for my wife putting her makeup on. If you book #7, you may want to ask if they have fixed it. On the lights on the left side of the best wasn't working either but, we weren't looking to do any reading so that didn't bothered us.  They don't provide coffee or tea but, it is right next to a Ralphs if you want to brew your own during your stay.
+It was strange having to point the cable remote toward the closet were the receiver was as other reviewers have mentioned but, we got to used to it after...My wife and I spent the weekend in Laguna Beach for her birthday and I booked this place based on the pictures of the amazing rooms. Room #7 was very nice with a very comfy tempur-pedic bed, kitchenette, and  big screen TV with HBO. The hotel is about a short block away from the Cliffs Restaurant so the location was very convenient. We are able to walk to the Kya Bistro in about 15 minutes. The wifi worked fine while we were there.Check-in time was 3:00 but our room wasn't ready until 4:00. No biggie as we just walked into town to do a little shopping and they called us when the room was ready. The light above the bathroom sink wasn't working so they put in a little desk lamp which was fine for washing hands but, not for my wife putting her makeup on. If you book #7, you may want to ask if they have fixed it. On the lights on the left side of the best wasn't working either but, we weren't looking to do any reading so that didn't bothered us.  They don't provide coffee or tea but, it is right next to a Ralphs if you want to brew your own during your stay.It was strange having to point the cable remote toward the closet were the receiver was as other reviewers have mentioned but, we got to used to it after awhile.  South Coast Highway does get pretty noisy on the weekends so getting the balcony rooms may not be ideal if you prefer to have it more quiet.All in all, it was a very nice stay and slept pretty well. If we stay in Laguna Beach again, we'll definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I spent the weekend in Laguna Beach for her birthday and I booked this place based on the pictures of the amazing rooms. Room #7 was very nice with a very comfy tempur-pedic bed, kitchenette, and  big screen TV with HBO. The hotel is about a short block away from the Cliffs Restaurant so the location was very convenient. We are able to walk to the Kya Bistro in about 15 minutes. The wifi worked fine while we were there.
+Check-in time was 3:00 but our room wasn't ready until 4:00. No biggie as we just walked into town to do a little shopping and they called us when the room was ready. The light above the bathroom sink wasn't working so they put in a little desk lamp which was fine for washing hands but, not for my wife putting her makeup on. If you book #7, you may want to ask if they have fixed it. On the lights on the left side of the best wasn't working either but, we weren't looking to do any reading so that didn't bothered us.  They don't provide coffee or tea but, it is right next to a Ralphs if you want to brew your own during your stay.
+It was strange having to point the cable remote toward the closet were the receiver was as other reviewers have mentioned but, we got to used to it after...My wife and I spent the weekend in Laguna Beach for her birthday and I booked this place based on the pictures of the amazing rooms. Room #7 was very nice with a very comfy tempur-pedic bed, kitchenette, and  big screen TV with HBO. The hotel is about a short block away from the Cliffs Restaurant so the location was very convenient. We are able to walk to the Kya Bistro in about 15 minutes. The wifi worked fine while we were there.Check-in time was 3:00 but our room wasn't ready until 4:00. No biggie as we just walked into town to do a little shopping and they called us when the room was ready. The light above the bathroom sink wasn't working so they put in a little desk lamp which was fine for washing hands but, not for my wife putting her makeup on. If you book #7, you may want to ask if they have fixed it. On the lights on the left side of the best wasn't working either but, we weren't looking to do any reading so that didn't bothered us.  They don't provide coffee or tea but, it is right next to a Ralphs if you want to brew your own during your stay.It was strange having to point the cable remote toward the closet were the receiver was as other reviewers have mentioned but, we got to used to it after awhile.  South Coast Highway does get pretty noisy on the weekends so getting the balcony rooms may not be ideal if you prefer to have it more quiet.All in all, it was a very nice stay and slept pretty well. If we stay in Laguna Beach again, we'll definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r174047798-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>174047798</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Your own pad in Laguna</t>
+  </si>
+  <si>
+    <t>The hotel is 14 individual units. It is more akin to an apt.  We arrived and checked in with ease.  The property manager was wonderful.  She tried to get the wifi working but was unable. She printed our sea world tix in her office.  She was a real help and invaluable to their operation.  We stayed in room 1. This room had a step that split the room.  Dangerous at night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r164303600-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>164303600</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Hidden Jewel in Laguna Beach!</t>
+  </si>
+  <si>
+    <t>Great location! Great ambiance!  Everything was in walking distance (Ralph’s, Starbucks, beaches). This little hidden jewel is hands down one of the best vacation spots in Laguna Beach with a rooftop deck and garage parking.  Manager Carolyn is so hospitable and helpful. I will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r163837870-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>163837870</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>Good but not great</t>
+  </si>
+  <si>
+    <t>The location of 14 West is good. Beach access at Cleo Street and the main beach is within walking distance. The hotel room was clean everywhere except the floor which was filthy; we had to wear socks and take them off right before getting into bed so the sheets would stay clean. Having a fireplace in the room is nice, but the uncovered skylight wakes you up at dawn and having frosted glass on the front door takes away from the romance. Also the toiletries were lower quality than what you get at a Holiday Inn. On the upside, the mattresses are comfortable memory foam. Overall 14 West is good, but missed the mark on a few things. I wouldn't pay full price for a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location of 14 West is good. Beach access at Cleo Street and the main beach is within walking distance. The hotel room was clean everywhere except the floor which was filthy; we had to wear socks and take them off right before getting into bed so the sheets would stay clean. Having a fireplace in the room is nice, but the uncovered skylight wakes you up at dawn and having frosted glass on the front door takes away from the romance. Also the toiletries were lower quality than what you get at a Holiday Inn. On the upside, the mattresses are comfortable memory foam. Overall 14 West is good, but missed the mark on a few things. I wouldn't pay full price for a room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r162678026-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>162678026</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Would stay here again.</t>
+  </si>
+  <si>
+    <t>Spent 1 night there with my wife as we passed through Laguna beach. Great location with everything in walking distance. Shop around the corner can be used for any goceries you need. Definitely use recomendations section of guide in room we got to try out two of them while we stayed there and they were amazing. Staff were friendly and helpful. Rooms were spacious and  clean. Bed is very comfortable. Highly recomend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r161832421-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>161832421</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Great spot!</t>
+  </si>
+  <si>
+    <t>Charming boutique hotel in perfect location! Spacious, well appointed rooms. Great roof deck. So nice to be able to access restaurants, shopping and beach all without worrying about parking. Manager Carolyn is so welcoming and helpful. We will definitely return!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r158958692-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>158958692</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>Enjoyed our visit</t>
+  </si>
+  <si>
+    <t>Nice layout and design, clean room, convenient location, comfortable bed, great soap and shampoo products.  The closet is unusually large for a hotel. The common area is quite nice although adding a fire-pit would really add to the ambience!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r156424477-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>156424477</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>Excellent, excellent value.</t>
+  </si>
+  <si>
+    <t>My wife and I recently spent several nights at 14 West - part of a much anticipated vacation for the two of us.  We picked the hotel because of its central location in Laguna Beach, studio apt-like trappings (working kitchen), and cost.  Also, I travel for work, and the idea of NOT staying in a traditional hotel was appealing.
+We arrived after-hours on the night of our arrival and had to negotiate the hotel's security to get the car parked and the room unlocked.  We had zero problems.  The hotel sent clear instructions on how to do it in advance and even sent us a text on the day of our arrival.
+There are several different rooms (14 I think), the majority of which have floor to ceiling windows looking out at an elevated common area/terrace.  The layout is well designed and well appointed with a barbecue, hot tub, and plenty of sitting/lounging space - shaded and unshaded.  A view of the ocean is possible though not when sitting.
+Our room featured a king-sized bed, sitting area, kitchenette, bathroom etc..  My wife commented that a good deal of thought went into the design.  While the room was not big, everything we needed was there, and where it should be.  A skylight provided natural light for both kitchen and bathroom.  We were extremely comfortable in the small space, but I wonder if a family of 4 (of which we are part...My wife and I recently spent several nights at 14 West - part of a much anticipated vacation for the two of us.  We picked the hotel because of its central location in Laguna Beach, studio apt-like trappings (working kitchen), and cost.  Also, I travel for work, and the idea of NOT staying in a traditional hotel was appealing.We arrived after-hours on the night of our arrival and had to negotiate the hotel's security to get the car parked and the room unlocked.  We had zero problems.  The hotel sent clear instructions on how to do it in advance and even sent us a text on the day of our arrival.There are several different rooms (14 I think), the majority of which have floor to ceiling windows looking out at an elevated common area/terrace.  The layout is well designed and well appointed with a barbecue, hot tub, and plenty of sitting/lounging space - shaded and unshaded.  A view of the ocean is possible though not when sitting.Our room featured a king-sized bed, sitting area, kitchenette, bathroom etc..  My wife commented that a good deal of thought went into the design.  While the room was not big, everything we needed was there, and where it should be.  A skylight provided natural light for both kitchen and bathroom.  We were extremely comfortable in the small space, but I wonder if a family of 4 (of which we are part of) could do it without incident.  We were on a budget, so we cooked quite a bit.  There is a decent sized grocery store (Ralph's) a half block from the hotel.  The room kitchenette had a okay compliment of bowls, tools, etc., but lacked a dish drain, or dish towels.  There is no dishwasher.  There is housekeeping, but it's just a "tidy up".  If you want to use your kitchen, you'll have to clean your kitchen. Again, no problem for the two of us, but a larger family = more dishes.We walked everywhere so the car stayed parked below the rooms (brilliant design).  The beach is ridiculously close, good food is everywhere as are shops, art, etc..  Bottom Line:  This is a very solid hotel and an outstanding value.  Laguna Beach is a very pleasant town with multiple ways to spend your time.  Those that work and live there were very welcoming and we look forward to returning.I struggled with writing this review.  I'd rather 14 West go unnoticed so we can always get a room, but that'd be unfair to the team that has made this hotel such an outstanding place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I recently spent several nights at 14 West - part of a much anticipated vacation for the two of us.  We picked the hotel because of its central location in Laguna Beach, studio apt-like trappings (working kitchen), and cost.  Also, I travel for work, and the idea of NOT staying in a traditional hotel was appealing.
+We arrived after-hours on the night of our arrival and had to negotiate the hotel's security to get the car parked and the room unlocked.  We had zero problems.  The hotel sent clear instructions on how to do it in advance and even sent us a text on the day of our arrival.
+There are several different rooms (14 I think), the majority of which have floor to ceiling windows looking out at an elevated common area/terrace.  The layout is well designed and well appointed with a barbecue, hot tub, and plenty of sitting/lounging space - shaded and unshaded.  A view of the ocean is possible though not when sitting.
+Our room featured a king-sized bed, sitting area, kitchenette, bathroom etc..  My wife commented that a good deal of thought went into the design.  While the room was not big, everything we needed was there, and where it should be.  A skylight provided natural light for both kitchen and bathroom.  We were extremely comfortable in the small space, but I wonder if a family of 4 (of which we are part...My wife and I recently spent several nights at 14 West - part of a much anticipated vacation for the two of us.  We picked the hotel because of its central location in Laguna Beach, studio apt-like trappings (working kitchen), and cost.  Also, I travel for work, and the idea of NOT staying in a traditional hotel was appealing.We arrived after-hours on the night of our arrival and had to negotiate the hotel's security to get the car parked and the room unlocked.  We had zero problems.  The hotel sent clear instructions on how to do it in advance and even sent us a text on the day of our arrival.There are several different rooms (14 I think), the majority of which have floor to ceiling windows looking out at an elevated common area/terrace.  The layout is well designed and well appointed with a barbecue, hot tub, and plenty of sitting/lounging space - shaded and unshaded.  A view of the ocean is possible though not when sitting.Our room featured a king-sized bed, sitting area, kitchenette, bathroom etc..  My wife commented that a good deal of thought went into the design.  While the room was not big, everything we needed was there, and where it should be.  A skylight provided natural light for both kitchen and bathroom.  We were extremely comfortable in the small space, but I wonder if a family of 4 (of which we are part of) could do it without incident.  We were on a budget, so we cooked quite a bit.  There is a decent sized grocery store (Ralph's) a half block from the hotel.  The room kitchenette had a okay compliment of bowls, tools, etc., but lacked a dish drain, or dish towels.  There is no dishwasher.  There is housekeeping, but it's just a "tidy up".  If you want to use your kitchen, you'll have to clean your kitchen. Again, no problem for the two of us, but a larger family = more dishes.We walked everywhere so the car stayed parked below the rooms (brilliant design).  The beach is ridiculously close, good food is everywhere as are shops, art, etc..  Bottom Line:  This is a very solid hotel and an outstanding value.  Laguna Beach is a very pleasant town with multiple ways to spend your time.  Those that work and live there were very welcoming and we look forward to returning.I struggled with writing this review.  I'd rather 14 West go unnoticed so we can always get a room, but that'd be unfair to the team that has made this hotel such an outstanding place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r156090334-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>156090334</t>
+  </si>
+  <si>
+    <t>03/30/2013</t>
+  </si>
+  <si>
+    <t>perfection!</t>
+  </si>
+  <si>
+    <t>Best hotel. Best location. Best atmosphere! It was just perfect and will definitely be back with my husband and children. It was a much needed girls vacation. We enjoyed the Laguna area very much. The people were genuinely nice. We are vegans and it was no problem finding good food. In fact, The Stand, which is a vegan spot was only two lights away. Everything was in walking distance (Whole Foods, dairy-free gelato, falafel, beach,etc). We rented a car anyway because we wanted to go to LA, which was only an hour away. Hands down the best vacation I've had thus far.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r155258231-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>155258231</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Last minute stay</t>
+  </si>
+  <si>
+    <t>Found this cute place on my Hotel Tonight app.  Pleasantly surprised. Great location. Very small. Only down side is that the office closes at 6 pm. My flight was later so I spoke with them on the phone. They were so helpful and kind. No problem getting in, parking, etc.  Very cute/hip. Comfortable bed, shower, mini kitchen.  Would stay again. Super sweet staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r152311041-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>152311041</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Cute, affordable, great location!</t>
+  </si>
+  <si>
+    <t>Found this gem online. Excellent and friendly service by staff, very reasonable prices, and right in the middle of downtown Laguna. We easily walked to beach, restaurants and bars. I like the feeling of a condo with personality more so than a huge generic hotel.  Malibu Room #11 was gorgeous, very clean, modern, and well stocked. Super comfy bed, romantic fireplace and lots of natural light from skylights. Love the kitchenette, outdoor patio, and common space with hot tub, lounge chairs and BBQ. Will Absoluetly stay here again and highly recommend to anyone!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r152141911-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>152141911</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>Best accommodation in Laguna Beach CA!</t>
+  </si>
+  <si>
+    <t>We booked 14 West after finding this facility on the web.  The site indicated a very modern facility with only 14 suites. I spoke directly to the manager to inquire about reservations, as we travel with a pet.  She was helpful and informative.  We booked the LaHoya Suite #6 and were not disappointed.  Spacious and modern with a fireplace. 14 West is the perfect location in Laguna Beach (just across street from beach). Walk everywhere! We did not need our car.  Price, room maintenance, kitchenette, welcoming manner from staff all EXCELLENT.  Will stay here again for sure.  You must check out accommodations on deck area outside suites.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r149442678-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>149442678</t>
+  </si>
+  <si>
+    <t>01/11/2013</t>
+  </si>
+  <si>
+    <t>Best place to stay in Laguna Beach</t>
+  </si>
+  <si>
+    <t>One word fantastic. Outstanding location, close to the centrum with many shops, bars and restaurants. If you ever intend to stay in Laguna stay at 14 West. I have already booked my next stay in this hotel. I highly recommend this hotel boutique hotel for a relaxing vacation</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r148849408-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>148849408</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Thank you 14 west for making my husbands birthday special!</t>
+  </si>
+  <si>
+    <t>14 west is AMAZING we will not stay anywhere else in Laguna. This was our first time in laguna and by far the best place to stay. Its modern, hip, sophisticated, and quiet. Located right next to Ralph's for groceries as the rooms have kitchenettes. The beach is literally across the street. The price is much better than the hotels on the beach and much cleaner. There is even a hot tub and bbq grills right outside the rooms, parking is a piece of cake because you get your own spot in the garage and can walk to all restaurants and shopping. I brought my husband here to surprise him with some friends for his 30th birthday. Carolyn from 14west went out of her way to post happy birthday signs in the room, included balloons, champaign, and a cupcake. I didn't even request these things to be done she just offered. She went above and beyond for us and we appreciated everything, thanks again 14 west for making our stay special we definitely will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>14 west is AMAZING we will not stay anywhere else in Laguna. This was our first time in laguna and by far the best place to stay. Its modern, hip, sophisticated, and quiet. Located right next to Ralph's for groceries as the rooms have kitchenettes. The beach is literally across the street. The price is much better than the hotels on the beach and much cleaner. There is even a hot tub and bbq grills right outside the rooms, parking is a piece of cake because you get your own spot in the garage and can walk to all restaurants and shopping. I brought my husband here to surprise him with some friends for his 30th birthday. Carolyn from 14west went out of her way to post happy birthday signs in the room, included balloons, champaign, and a cupcake. I didn't even request these things to be done she just offered. She went above and beyond for us and we appreciated everything, thanks again 14 west for making our stay special we definitely will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r146587685-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>146587685</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>"Romantic escape, perfect location and friendly staff"</t>
+  </si>
+  <si>
+    <t>Thank you 14 West for your warm hospitality and friendliness during our stay.Your property provided a very unique experience with many hidden pleasures. The hot tub in its private, cozy setting is exquisite during sunset and provides tranquility after an active day on the beach.  We appreciate all the beach toys, chairs and towels you provide to your guests!Our room was equipped with modern conveniences with comforts of home and more.  The fireplace, not only beautiful to look at, created a warm, inviting atmosphere. So thank you again, my beloved 14 West, for making our "escape" an unforgettable experience and giving us memories to last a lifetime! T &amp; DMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Thank you 14 West for your warm hospitality and friendliness during our stay.Your property provided a very unique experience with many hidden pleasures. The hot tub in its private, cozy setting is exquisite during sunset and provides tranquility after an active day on the beach.  We appreciate all the beach toys, chairs and towels you provide to your guests!Our room was equipped with modern conveniences with comforts of home and more.  The fireplace, not only beautiful to look at, created a warm, inviting atmosphere. So thank you again, my beloved 14 West, for making our "escape" an unforgettable experience and giving us memories to last a lifetime! T &amp; DMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r146501442-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>146501442</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Great location, fantastic staff, well-equipped studios</t>
+  </si>
+  <si>
+    <t>This is a self-catering studio place in our "old town" Laguna Beach. For our  nostalgia trip back to the place where we use to live 8 years ago, we chose 14 West. The location is perfect - in the Village, close to great  beaches, restaurants and stores. Having a supervised garage spot in one of the few places in California where you can actually leave your car and walk to everything is a great plus!The studio was clean and well-equipped, the bed was great for the adults and the futon was big enough for our 6 and 8 year old to share.  In all fairness, the studio design is more cool than "practical". There are small details which a frequent traveler's eye would spot react to. We have give our feedback to the staff and they seemed genuinely interested to take it in consideration.  Which brings us to the staff: Carolyn and Eva were fantastic! Helpful, kind, charming and service-minded to the point were they drove for 30 miles in  the middle fo dinner-time on a Satudary to let us in into our studio, when our 6 year old accidentaly locked us out! The whole 12 day stay  at 14 West has been great and we recommend this place warmly.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>This is a self-catering studio place in our "old town" Laguna Beach. For our  nostalgia trip back to the place where we use to live 8 years ago, we chose 14 West. The location is perfect - in the Village, close to great  beaches, restaurants and stores. Having a supervised garage spot in one of the few places in California where you can actually leave your car and walk to everything is a great plus!The studio was clean and well-equipped, the bed was great for the adults and the futon was big enough for our 6 and 8 year old to share.  In all fairness, the studio design is more cool than "practical". There are small details which a frequent traveler's eye would spot react to. We have give our feedback to the staff and they seemed genuinely interested to take it in consideration.  Which brings us to the staff: Carolyn and Eva were fantastic! Helpful, kind, charming and service-minded to the point were they drove for 30 miles in  the middle fo dinner-time on a Satudary to let us in into our studio, when our 6 year old accidentaly locked us out! The whole 12 day stay  at 14 West has been great and we recommend this place warmly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r143930624-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>143930624</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay at 14 West in Laguna Beach. The two ladies, Carolyn and Marieva, that run the show are very friendly and helpful, I was most impressed with their service! It makes a huge difference to me to deal with friendly people who do not possess any kind of attitude. I felt very welcome and comfortable during my stay at 14 West. The location was perfect for me too, close to the beach and shops. I will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r140200930-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>140200930</t>
+  </si>
+  <si>
+    <t>09/13/2012</t>
+  </si>
+  <si>
+    <t>Our New Laguna Beach Destination</t>
+  </si>
+  <si>
+    <t>What an amazing property!  Our trip was a last-minute 3-day getaway and we wanted something a little out of the ordinary hotel experience and we definitely found it with 14 West in Laguna Beach!From the minute we arrived we were in awe of the wonderful experience we had!  From the amazing customer service to the outstanding upkeep of this beautiful property, we were permanently SOLD!!!  We could not have asked for nicer accommodations or staff to serve us!  The location is amazing!  The management at 14 West truly understands what "quality accommodations" means.  Cleanliness is unsurpassed and attention to detail is definitely a strong priority.This is our new Laguna Beach destination!  We are looking forward to coming back....SOON!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>What an amazing property!  Our trip was a last-minute 3-day getaway and we wanted something a little out of the ordinary hotel experience and we definitely found it with 14 West in Laguna Beach!From the minute we arrived we were in awe of the wonderful experience we had!  From the amazing customer service to the outstanding upkeep of this beautiful property, we were permanently SOLD!!!  We could not have asked for nicer accommodations or staff to serve us!  The location is amazing!  The management at 14 West truly understands what "quality accommodations" means.  Cleanliness is unsurpassed and attention to detail is definitely a strong priority.This is our new Laguna Beach destination!  We are looking forward to coming back....SOON!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r140039391-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
+  </si>
+  <si>
+    <t>140039391</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>Girls weekend</t>
+  </si>
+  <si>
+    <t>This hotel has a name change to 14 WEST and new owners who have given it the 5 star touches it sounds like it needed... All new bedding, towels, toiletries, and each room is decorated differently... The location is the bomb, walking distance to downtown Laguna Beach and a stones toss across the street to the beach.  You can pick up the Trolley if you don't feel like the exercise but seriously a 5 to 10 minute stroll anywhere you choose, perfect location in my opinion... Each room has a small studio kitchen which is awesome buy wine, mixers, beer choose your poison at the Ralph's around the corner pour yourself a cocktail and walk out your door to enjoy the jacuzzi or just relax in a lounge chair with whoever you choose... I would recommend this hotel to anyone who wants a relaxing get away with contemporary charm... I'm going back for sure...MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has a name change to 14 WEST and new owners who have given it the 5 star touches it sounds like it needed... All new bedding, towels, toiletries, and each room is decorated differently... The location is the bomb, walking distance to downtown Laguna Beach and a stones toss across the street to the beach.  You can pick up the Trolley if you don't feel like the exercise but seriously a 5 to 10 minute stroll anywhere you choose, perfect location in my opinion... Each room has a small studio kitchen which is awesome buy wine, mixers, beer choose your poison at the Ralph's around the corner pour yourself a cocktail and walk out your door to enjoy the jacuzzi or just relax in a lounge chair with whoever you choose... I would recommend this hotel to anyone who wants a relaxing get away with contemporary charm... I'm going back for sure...More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2243,4932 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>184</v>
+      </c>
+      <c r="X21" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>220</v>
+      </c>
+      <c r="X26" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>220</v>
+      </c>
+      <c r="X27" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>220</v>
+      </c>
+      <c r="X28" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>273</v>
+      </c>
+      <c r="O32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>288</v>
+      </c>
+      <c r="J35" t="s">
+        <v>289</v>
+      </c>
+      <c r="K35" t="s">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s">
+        <v>291</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>292</v>
+      </c>
+      <c r="O35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>292</v>
+      </c>
+      <c r="O36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>300</v>
+      </c>
+      <c r="J37" t="s">
+        <v>301</v>
+      </c>
+      <c r="K37" t="s">
+        <v>302</v>
+      </c>
+      <c r="L37" t="s">
+        <v>303</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>307</v>
+      </c>
+      <c r="J38" t="s">
+        <v>308</v>
+      </c>
+      <c r="K38" t="s">
+        <v>309</v>
+      </c>
+      <c r="L38" t="s">
+        <v>310</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>311</v>
+      </c>
+      <c r="O38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>304</v>
+      </c>
+      <c r="O39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>311</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>323</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>324</v>
+      </c>
+      <c r="J41" t="s">
+        <v>325</v>
+      </c>
+      <c r="K41" t="s">
+        <v>326</v>
+      </c>
+      <c r="L41" t="s">
+        <v>327</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>328</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>330</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>331</v>
+      </c>
+      <c r="J42" t="s">
+        <v>332</v>
+      </c>
+      <c r="K42" t="s">
+        <v>333</v>
+      </c>
+      <c r="L42" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>335</v>
+      </c>
+      <c r="O42" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>337</v>
+      </c>
+      <c r="J43" t="s">
+        <v>338</v>
+      </c>
+      <c r="K43" t="s">
+        <v>339</v>
+      </c>
+      <c r="L43" t="s">
+        <v>340</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>341</v>
+      </c>
+      <c r="O43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>342</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>343</v>
+      </c>
+      <c r="J44" t="s">
+        <v>344</v>
+      </c>
+      <c r="K44" t="s">
+        <v>345</v>
+      </c>
+      <c r="L44" t="s">
+        <v>346</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>347</v>
+      </c>
+      <c r="O44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>349</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>350</v>
+      </c>
+      <c r="J45" t="s">
+        <v>351</v>
+      </c>
+      <c r="K45" t="s">
+        <v>352</v>
+      </c>
+      <c r="L45" t="s">
+        <v>353</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>347</v>
+      </c>
+      <c r="O45" t="s">
+        <v>106</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>354</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>355</v>
+      </c>
+      <c r="J46" t="s">
+        <v>356</v>
+      </c>
+      <c r="K46" t="s">
+        <v>357</v>
+      </c>
+      <c r="L46" t="s">
+        <v>358</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>359</v>
+      </c>
+      <c r="O46" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>361</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>362</v>
+      </c>
+      <c r="J47" t="s">
+        <v>363</v>
+      </c>
+      <c r="K47" t="s">
+        <v>364</v>
+      </c>
+      <c r="L47" t="s">
+        <v>365</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>359</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>368</v>
+      </c>
+      <c r="J48" t="s">
+        <v>369</v>
+      </c>
+      <c r="K48" t="s">
+        <v>370</v>
+      </c>
+      <c r="L48" t="s">
+        <v>371</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>374</v>
+      </c>
+      <c r="J49" t="s">
+        <v>369</v>
+      </c>
+      <c r="K49" t="s">
+        <v>375</v>
+      </c>
+      <c r="L49" t="s">
+        <v>376</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>377</v>
+      </c>
+      <c r="O49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>379</v>
+      </c>
+      <c r="J50" t="s">
+        <v>380</v>
+      </c>
+      <c r="K50" t="s">
+        <v>381</v>
+      </c>
+      <c r="L50" t="s">
+        <v>382</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>383</v>
+      </c>
+      <c r="O50" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>385</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>386</v>
+      </c>
+      <c r="J51" t="s">
+        <v>387</v>
+      </c>
+      <c r="K51" t="s">
+        <v>388</v>
+      </c>
+      <c r="L51" t="s">
+        <v>389</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>390</v>
+      </c>
+      <c r="O51" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>392</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>393</v>
+      </c>
+      <c r="J52" t="s">
+        <v>394</v>
+      </c>
+      <c r="K52" t="s">
+        <v>395</v>
+      </c>
+      <c r="L52" t="s">
+        <v>396</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>397</v>
+      </c>
+      <c r="O52" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>398</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>399</v>
+      </c>
+      <c r="J53" t="s">
+        <v>400</v>
+      </c>
+      <c r="K53" t="s">
+        <v>401</v>
+      </c>
+      <c r="L53" t="s">
+        <v>402</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>403</v>
+      </c>
+      <c r="O53" t="s">
+        <v>58</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>404</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>405</v>
+      </c>
+      <c r="J54" t="s">
+        <v>406</v>
+      </c>
+      <c r="K54" t="s">
+        <v>407</v>
+      </c>
+      <c r="L54" t="s">
+        <v>408</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>409</v>
+      </c>
+      <c r="O54" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>412</v>
+      </c>
+      <c r="J55" t="s">
+        <v>413</v>
+      </c>
+      <c r="K55" t="s">
+        <v>414</v>
+      </c>
+      <c r="L55" t="s">
+        <v>415</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>403</v>
+      </c>
+      <c r="O55" t="s">
+        <v>106</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>416</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>417</v>
+      </c>
+      <c r="J56" t="s">
+        <v>418</v>
+      </c>
+      <c r="K56" t="s">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s">
+        <v>420</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>421</v>
+      </c>
+      <c r="O56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>422</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>423</v>
+      </c>
+      <c r="J57" t="s">
+        <v>424</v>
+      </c>
+      <c r="K57" t="s">
+        <v>425</v>
+      </c>
+      <c r="L57" t="s">
+        <v>426</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>427</v>
+      </c>
+      <c r="O57" t="s">
+        <v>106</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>429</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>430</v>
+      </c>
+      <c r="J58" t="s">
+        <v>431</v>
+      </c>
+      <c r="K58" t="s">
+        <v>432</v>
+      </c>
+      <c r="L58" t="s">
+        <v>433</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>397</v>
+      </c>
+      <c r="O58" t="s">
+        <v>58</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>435</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>436</v>
+      </c>
+      <c r="J59" t="s">
+        <v>437</v>
+      </c>
+      <c r="K59" t="s">
+        <v>438</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>409</v>
+      </c>
+      <c r="O59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>440</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>441</v>
+      </c>
+      <c r="J60" t="s">
+        <v>442</v>
+      </c>
+      <c r="K60" t="s">
+        <v>443</v>
+      </c>
+      <c r="L60" t="s">
+        <v>444</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>383</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>445</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>446</v>
+      </c>
+      <c r="J61" t="s">
+        <v>447</v>
+      </c>
+      <c r="K61" t="s">
+        <v>448</v>
+      </c>
+      <c r="L61" t="s">
+        <v>449</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>383</v>
+      </c>
+      <c r="O61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>451</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>452</v>
+      </c>
+      <c r="J62" t="s">
+        <v>453</v>
+      </c>
+      <c r="K62" t="s">
+        <v>454</v>
+      </c>
+      <c r="L62" t="s">
+        <v>455</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>456</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>457</v>
+      </c>
+      <c r="J63" t="s">
+        <v>458</v>
+      </c>
+      <c r="K63" t="s">
+        <v>459</v>
+      </c>
+      <c r="L63" t="s">
+        <v>460</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>461</v>
+      </c>
+      <c r="O63" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>462</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>463</v>
+      </c>
+      <c r="J64" t="s">
+        <v>464</v>
+      </c>
+      <c r="K64" t="s">
+        <v>465</v>
+      </c>
+      <c r="L64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>427</v>
+      </c>
+      <c r="O64" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>468</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>469</v>
+      </c>
+      <c r="J65" t="s">
+        <v>470</v>
+      </c>
+      <c r="K65" t="s">
+        <v>471</v>
+      </c>
+      <c r="L65" t="s">
+        <v>472</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>473</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>474</v>
+      </c>
+      <c r="J66" t="s">
+        <v>475</v>
+      </c>
+      <c r="K66" t="s">
+        <v>476</v>
+      </c>
+      <c r="L66" t="s">
+        <v>477</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>478</v>
+      </c>
+      <c r="O66" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>479</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>480</v>
+      </c>
+      <c r="J67" t="s">
+        <v>481</v>
+      </c>
+      <c r="K67" t="s">
+        <v>482</v>
+      </c>
+      <c r="L67" t="s">
+        <v>483</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>484</v>
+      </c>
+      <c r="O67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>485</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>486</v>
+      </c>
+      <c r="J68" t="s">
+        <v>487</v>
+      </c>
+      <c r="K68" t="s">
+        <v>488</v>
+      </c>
+      <c r="L68" t="s">
+        <v>489</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>461</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>491</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>492</v>
+      </c>
+      <c r="J69" t="s">
+        <v>493</v>
+      </c>
+      <c r="K69" t="s">
+        <v>494</v>
+      </c>
+      <c r="L69" t="s">
+        <v>495</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>461</v>
+      </c>
+      <c r="O69" t="s">
+        <v>58</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>496</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>497</v>
+      </c>
+      <c r="J70" t="s">
+        <v>498</v>
+      </c>
+      <c r="K70" t="s">
+        <v>499</v>
+      </c>
+      <c r="L70" t="s">
+        <v>500</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>461</v>
+      </c>
+      <c r="O70" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>501</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>502</v>
+      </c>
+      <c r="J71" t="s">
+        <v>503</v>
+      </c>
+      <c r="K71" t="s">
+        <v>504</v>
+      </c>
+      <c r="L71" t="s">
+        <v>505</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>506</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>507</v>
+      </c>
+      <c r="J72" t="s">
+        <v>508</v>
+      </c>
+      <c r="K72" t="s">
+        <v>509</v>
+      </c>
+      <c r="L72" t="s">
+        <v>510</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>511</v>
+      </c>
+      <c r="O72" t="s">
+        <v>65</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>512</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>513</v>
+      </c>
+      <c r="J73" t="s">
+        <v>514</v>
+      </c>
+      <c r="K73" t="s">
+        <v>515</v>
+      </c>
+      <c r="L73" t="s">
+        <v>516</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>517</v>
+      </c>
+      <c r="O73" t="s">
+        <v>106</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>518</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>519</v>
+      </c>
+      <c r="J74" t="s">
+        <v>520</v>
+      </c>
+      <c r="K74" t="s">
+        <v>521</v>
+      </c>
+      <c r="L74" t="s">
+        <v>522</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>523</v>
+      </c>
+      <c r="O74" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>525</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>526</v>
+      </c>
+      <c r="J75" t="s">
+        <v>527</v>
+      </c>
+      <c r="K75" t="s">
+        <v>528</v>
+      </c>
+      <c r="L75" t="s">
+        <v>529</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>530</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>532</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>533</v>
+      </c>
+      <c r="J76" t="s">
+        <v>534</v>
+      </c>
+      <c r="K76" t="s">
+        <v>535</v>
+      </c>
+      <c r="L76" t="s">
+        <v>536</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>537</v>
+      </c>
+      <c r="O76" t="s">
+        <v>72</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>539</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>540</v>
+      </c>
+      <c r="J77" t="s">
+        <v>541</v>
+      </c>
+      <c r="K77" t="s">
+        <v>542</v>
+      </c>
+      <c r="L77" t="s">
+        <v>543</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>537</v>
+      </c>
+      <c r="O77" t="s">
+        <v>82</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>544</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>545</v>
+      </c>
+      <c r="J78" t="s">
+        <v>546</v>
+      </c>
+      <c r="K78" t="s">
+        <v>547</v>
+      </c>
+      <c r="L78" t="s">
+        <v>548</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>549</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64671</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>551</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>552</v>
+      </c>
+      <c r="J79" t="s">
+        <v>553</v>
+      </c>
+      <c r="K79" t="s">
+        <v>554</v>
+      </c>
+      <c r="L79" t="s">
+        <v>555</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>549</v>
+      </c>
+      <c r="O79" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>556</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_1.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Danielle C</t>
+  </si>
+  <si>
     <t>06/27/2018</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t xml:space="preserve">My husband and I stayed at 14 West Boutique Hotel in Laguna.  Overall we LOVED it!  We love the Melrose Place feel to it with the common area.  Each room is HUGE!  All rooms are decorated differently and all have fireplaces.  Our room had a beautiful bathroom, separate vanity, walk in closet.  The kitchenette was fully stocked with glassware and dishes.  It also had 2 refrigerators.  There is a skylight that stretches from the living space into the bathroom.   A nice touch for natural sunlight.  Each room has a patio area, if you will at the front door.  Very pleasant for enjoying the day.  A quiet and pleasant place.  </t>
   </si>
   <si>
+    <t>BradyBunte77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r583983081-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>SandyRed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r578681412-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>pbaccash26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r562979131-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>An awesome hotel across the street from the ocean great beds kitchenette rooms open up to great meeting area with table lounge chairs and barbecue. A perfect meeting place for family members staying at hotel together. We were there for a family wedding and it was wonderful.More</t>
   </si>
   <si>
+    <t>BlakievanHemert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r544327309-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>This place has really fine rooms modernly appointed with up to date appliances, bedding and furnishings.  Each room has just a little different set up.  There is a classy outside sitting area between the 2 layers of rooms that run along a rectangular upstairs setting.The hotel is located rough on Pacific Coast Highway 1 and it is LOUD.  My first room was only 1 room removed from the highway and it was not acceptable.  I could only move one more room over, but that was enough to curtail the traffic noise.If you go, request as far back from the highway as possible.Undergound parking is available for %15/ night and worth it as there is only metered parking for 8 am- 7 pm in the neighbourhood.More</t>
   </si>
   <si>
+    <t>ViviMCer20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r540549821-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>My husband surprised me by bringing me to Laguna for the first time and booked this beautiful hotel for us! Julio (front desk manager) greeted us and was very kind. The room we were in was beautiful and stylish and it even had a nice kitchenette! The room was a decent size and the bed was comfortable. We were very pleased with our stay and cannot wait to come back! More</t>
   </si>
   <si>
+    <t>Vincent B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r526018917-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>Hotel was as advertised, very clean and good location right in the heart of the laguna.  Tons of shops and restaurants are easily walkable. Staff was help and parking was among the cheapest we've found at hotels in southern California. Room seemed quiet too. More</t>
   </si>
   <si>
+    <t>Andreas M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r525875764-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>As return guests at this boutique hotel we love the 14 West for its convenient location, modern style,  comfort and privacy. Having stayed here previously, it is only fair to say that this unique property has seen better times and is in desperate need of a make-over. We hope the new management finds its way back to the charm this property once had. More</t>
   </si>
   <si>
+    <t>joker143</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r524232861-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -366,6 +393,9 @@
     <t>My husband &amp; I stayed here for the first time for Labor Day Weekend. We drove in from Arizona.  A busy weekend, but from the time we arrived (the young man behind the desk took the time to tell us what was nearby, about the beach access directly across the street, and even helped us with our bags to our room and showed us to our room.   They provide free ice downstairs, which was awesome for packing a cooler for the beach each day.  The room was very spacious, modern, beautifully tiled bathroom with jet tub and a walk-in closet!!!!!  You never see that in a hotel!   The daily housekeeping was a plus, so we got fresh towels and beds made. The kitchen area had everything we needed, including a nice cork screw for a bottle of wine we brought :)   The bed was the most comfortable bed ever!   We never slept this well at home.  I highly recommend this place- its small, so it's not overcrowded.  The public area has beautiful lounge chairs and a BBQ if you just want to hang out and chill.   We will definitely be back!!!More</t>
   </si>
   <si>
+    <t>tamika j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r518180822-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -384,6 +414,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Jeanne R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r511536238-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>Let me say first off the stuff were very helpful and great during the 3 days we were there. The hotel is run down but in the pictures looks sparkling! The location is first rate...close to town, step away from Ralph's and the beach.The room is laid  out in an odd way...lots of things do not work. Great to have a fridge though :)The jacuzzi tub was not working but they said they apologized and the jacuzzi outside was working. It was not. The lounge chairs and deck chairs were stained and shabby looking...not at all inviting. The tub to climb into, was about 36 inches high...any disability in this hotel would not work...stairs up to the room were steep and narrow also.There is a BBQ( not the built in one showed on the pictures) that stands outside with no propane rank...maybe you have to bring your own?? I would not recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>Kim J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r509546463-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -429,6 +465,9 @@
     <t>We had a wonderful experience at this hotel. Sergio couldn't have been more helpful or sincere at what he does to make his guests feel special and appreciated!! Thank you for that. The room was clean and spacious and the beds were very comfortable. Loved the room rate which was a big factor in choosing where to stay, but it had to be a nice hotel too. But let me say, this was more than nice. Soooo close to the beach and village also. Plenty of utensils and such for the kitchenette, and the AC worked great. Spacious closet and nice bathroom. The outdoor patio was very nice and clean. The maid was super nice too. A big thankyou to all the staff for making our stay very memorable. We will return!!More</t>
   </si>
   <si>
+    <t>Minelia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r486702683-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -454,6 +493,9 @@
   </si>
   <si>
     <t>Chris is very friendly he will go out of his way to make sure you enjoy your stay 14 west is the best place to stay in LagunaThe rooms are very cleanWe love this place. Is walking distance to restaurants and the beach More</t>
+  </si>
+  <si>
+    <t>ridelikeagirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r480692718-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
@@ -493,6 +535,9 @@
 - Staff. Small, conscientious and largely hidden. The good news is they're...I always feel like going to any really good beach community in California is going to cost $300+ per night for anything a) cool and b) close to the beach. 14 West is both. It's a boutique hotel which means it's small and you're not going to get the services that someone like me never uses anyway. In fact, the gate code might suddenly not work and you have to be able to deal with one flight of stairs from the subterranean parking, but those are small prices to pay for everything else in the plus column. What we love about this place:- Location. It's right off PCH and 1 block from beach with simple access. You can walk across the street to the classic Orange Inn for breakfast which we did nearly every morning. Bike shop 2 blocks away. An abundance of surf shops everywhere. Downtown Laguna, short walk. Really, you don't even need a car unless you're going exploring or headed to the San Juan bike trail system :)- Big Rooms. We've stayed in several of the rooms and they're all great. Pretty new, clean, big shower, kitchenette, coma-level bed, gas fireplace. - Clientele. The outdoor common area is a main gathering point and we've actually gotten to know other guests. Trust me, we typically aren't those people, but this place attracts fun couples. - Staff. Small, conscientious and largely hidden. The good news is they're nice people and super helpful (even let us clean our bicycles off with the hotel hose).More</t>
   </si>
   <si>
+    <t>Julio B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r479307111-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -511,6 +556,9 @@
     <t>Surprised to have found this little reserved quiet and wonderfully located hotel. Strange parking set up (hard to turn in from main road when coming from north. Well set up amenities for those willing to cook light.More</t>
   </si>
   <si>
+    <t>Kim F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r461542165-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -538,6 +586,9 @@
     <t>Loved this hotel so much! Super modern, clean and well thought out. Stayed the weekend with my husband. Had a great room, all rooms are upstairs. No elevator. Tile slate colored floors and nicely painted walls. Nice size flat screen tv above the gas fireplace across from the tempurpedic bed. There was 2 refrigerators, a microwave, 2 burner gas stove. utensils, glassware &amp; dishes. A sink in the kitchenette. There was a coffee maker &amp; a toaster. They even had soap &amp; sponge, Pots and pans and a wine key. Loved this so much! There were skylights throughout. The bathroom was nice, super modern deep square tub, good water pressure. Nice towel rack. The sink was separate from the shower &amp; toilet. They had a really nice closet with room for shoes &amp; clothes. Very well thought out. The wifi worked great. It was across the street from the ocean, however you can't see it or hear it. The windows don't open. Loved staying here. My only complaint would be we came especially to use the jacuzzi which they tried to get it to work but it didn't . Such a bummer. It was one of the reasons why I chose this hotel besides looking so beautiful. Would recommend this lovely hotel. There was a cot in the closet as well. Also there is a Ralphs grocery store walking distance, close to tons of stores and shops &amp; restaurants. Nice...Loved this hotel so much! Super modern, clean and well thought out. Stayed the weekend with my husband. Had a great room, all rooms are upstairs. No elevator. Tile slate colored floors and nicely painted walls. Nice size flat screen tv above the gas fireplace across from the tempurpedic bed. There was 2 refrigerators, a microwave, 2 burner gas stove. utensils, glassware &amp; dishes. A sink in the kitchenette. There was a coffee maker &amp; a toaster. They even had soap &amp; sponge, Pots and pans and a wine key. Loved this so much! There were skylights throughout. The bathroom was nice, super modern deep square tub, good water pressure. Nice towel rack. The sink was separate from the shower &amp; toilet. They had a really nice closet with room for shoes &amp; clothes. Very well thought out. The wifi worked great. It was across the street from the ocean, however you can't see it or hear it. The windows don't open. Loved staying here. My only complaint would be we came especially to use the jacuzzi which they tried to get it to work but it didn't . Such a bummer. It was one of the reasons why I chose this hotel besides looking so beautiful. Would recommend this lovely hotel. There was a cot in the closet as well. Also there is a Ralphs grocery store walking distance, close to tons of stores and shops &amp; restaurants. Nice to leave your car there and walk around. Very centrally located. There is also nice lounges &amp; a bbq grill outside as well. Free parking for us. It was included. No issues with any of that. A great place to stay and enjoy Laguna Beach.More</t>
   </si>
   <si>
+    <t>nuwoodz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r460430135-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -562,6 +613,9 @@
     <t>Our first visit to a "boutique" hotel was a nice surprise.  Exceptionally clean, nice atmosphere with fireplace near the bed, and convenient to walk the town. Parking under the hotel was a challenge for our SUV but worked out just fine.  Didn't have to move the car while we walked the town.More</t>
   </si>
   <si>
+    <t>Bill M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r451068401-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -589,6 +643,9 @@
     <t>What a pleasant surprise. Very trendy. Unique rooms. Great service. Close to beach, restaurants, downtown area. Private, covered parking with an entry code. Hard to appreciate from the street. You could easily miss it but you are in for a very nice surprise when you climb the stairs to the 2nd level courtyard and enter any of the large, unique rooms. Would definetly stay there again.More</t>
   </si>
   <si>
+    <t>Magdalena R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r412543756-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -613,6 +670,9 @@
     <t>What a nice stay we had. Even thought it was for one night. Loved the modern room. Room four was a king size room with all amenities. They did a great job. Not a typical resort, but a fun quirky style hotel, that has been redone to meet the most critical customer.  Very spacious, clean, modern, open space right across from the beach. Walking distance to everything you need! Will be back!!!More</t>
   </si>
   <si>
+    <t>Sandra T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r407222988-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -631,6 +691,9 @@
     <t>Two night stop over at end of trip before travelling back to uk. Good central location within Laguna beach, short walk to many restaurants. Rooms very clean modern and well set out. Parking available on site for extra charge.More</t>
   </si>
   <si>
+    <t>Jo_Ann000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r401902598-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -652,6 +715,9 @@
     <t>We were only at 14 West for one night but was very pleased with the boutique.  The woman at the desk was so helpful and offered many suggestions.  I wish we were spending more time there because i would have liked to use the kitchen amenities.  Very clean property in and out.More</t>
   </si>
   <si>
+    <t>Rebecca M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r396039734-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -668,6 +734,9 @@
   </si>
   <si>
     <t>Check in attendant lacked customer service upon check in. For a Boutique hotel I expected her to at least show us to our room since we checked in during business hours. Rather she just handed us our keys and asked if we read our instructions in our email (which we did BTW). When I asked for linen and pillow for the sofa for my son, I was handed a top sheet and told to use one of the other pillows. The couch is in terrible condition (see pictures). The jet tub was broken in the bathroom. The temper pedic mattress sags in the middle so plan on sleeping in the center of the bed, even if there are two of you. There is a lot of natural light in room 7 during the day. However, at night there were 3 lights burnt out and it was rather dark. I asked for them to be replaced and was told their maintenance worker does not work on the weekends. For an small boutique hotel and the price we paid I expected more.More</t>
+  </si>
+  <si>
+    <t>T B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r383064005-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
@@ -701,6 +770,9 @@
 Hotel staff is also friendly and professional....I stayed at 14 west 6/13-6/15 for $200.00 a night plus $15 a day for parking. I was very impressed with Hermosa room #10, which is a king bed, kitchenette, walk in closet, 2 mini fridges, large bath tub/shower, flat screen tv, gas fireplace &amp; couch. It was extremely clean!! The bed was by far the most comfortable bed I've ever slept in. I travel several times a year and have never slept in such comfort. The linens were nice &amp; the pillows were very comfortable too!! Lots of cable channels and it was nice relaxing &amp; enjoying the gas fireplace. There is a hot tub and seating in the common area of the hotel. The hot tub is amazing &amp; was very relaxing, especially after all of the sightseeing!The best part about this hotel was the location. Walking distance to several restaurants, shops, gas stations, beach rental equipment &amp; beaches. Right across the street is Cleo beach but if you walk about 3 to 4 blocks north, main beach is right at your feet, which has a basketball court and volleyball nets. It was so great being able to walk everywhere then come back to a clean condo/apt. And relax. I highly recommend this place! It is kind of expensive but well worth the price!! I would def. stay here again. I highly recommend it! I did not want to leave!Hotel staff is also friendly and professional. They also provide you with body board and other beach equipment if you need to borrow. People in these reviews mentioned a noisy street but I did not hear any noise from my room. It was very peaceful and quiet, even during the day, I could not hear the loud traffic.I can't wait to come back to Laguna and stay here!!More</t>
   </si>
   <si>
+    <t>4SIGHT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r377357851-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -722,6 +794,9 @@
     <t>This is really cool, hipster lodging very convenient to the village.  Be forewarned, it is anything but quite.  You will hear PCH all night long. The rooms were very well appointed.  No proper restaurant, but many choices in walking distance.More</t>
   </si>
   <si>
+    <t>dshendri</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r357717891-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -740,6 +815,9 @@
     <t>This is our 3rd stay in Laguna and our 3rd stay at 14West.  We have loved it since the first time we stayed here.  The rooms are unique and spacious.  We have stayed in both of the balcony rooms that overlook the main road (PCH).  Love all the light brought into those two rooms from the skylights.  And we love having a gas fireplace.  Our room had two mini fridges, a sink, dishes, microwave, coffee pot and a small stovetop too.  You could easily cook a meal in one of these rooms.  The parking is under the rooms, which are all on the second floor and there is no elevator available.   The parking is gated off and secure.  There are 14 rooms and there is a hot tub for everyone to use out on the second floor patio along with lounge chair for sunbathing or relaxing and a grill and table with chairs.  Ralph's grocery store is a very short walk if you need to get supplies for your room.  There is a bar of soap, shampoo and conditioner in your room already.  Beach towels are provided in your room.  There are some beach chairs you can borrow too down by the office.  It's an easy walk into downtown Laguna where shops and restaurants are.  Also you can walk down to the main beach from here.  And you can walk along the boardwalk at the beach and follow the path...This is our 3rd stay in Laguna and our 3rd stay at 14West.  We have loved it since the first time we stayed here.  The rooms are unique and spacious.  We have stayed in both of the balcony rooms that overlook the main road (PCH).  Love all the light brought into those two rooms from the skylights.  And we love having a gas fireplace.  Our room had two mini fridges, a sink, dishes, microwave, coffee pot and a small stovetop too.  You could easily cook a meal in one of these rooms.  The parking is under the rooms, which are all on the second floor and there is no elevator available.   The parking is gated off and secure.  There are 14 rooms and there is a hot tub for everyone to use out on the second floor patio along with lounge chair for sunbathing or relaxing and a grill and table with chairs.  Ralph's grocery store is a very short walk if you need to get supplies for your room.  There is a bar of soap, shampoo and conditioner in your room already.  Beach towels are provided in your room.  There are some beach chairs you can borrow too down by the office.  It's an easy walk into downtown Laguna where shops and restaurants are.  Also you can walk down to the main beach from here.  And you can walk along the boardwalk at the beach and follow the path up the cliffside to Heisler Park where the views are just outstanding throughout the day and especially at sunset.  The nearest restaurant is The Orange Inn across the street, which is good to get coffee from also.  We will always plan to stay here when in Laguna.More</t>
   </si>
   <si>
+    <t>reggiej1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r345982719-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -758,6 +836,9 @@
     <t>We have stayed at 14 West either 3 or 4 times. While I like the uniqueness of the hotel, I think it is pretty expensive for what you get when they add $15 per day for parking. This is the first time the fee was added even though it always stated it on the reservation. I think time is beginning to take its toll because the room showed serious signs of wear. The room, while not dirty, was not immaculate. You do get a lot of space and a secure parking spot and the office staff was very nice and accommodating, just I think it's a lot for what you getMore</t>
   </si>
   <si>
+    <t>David H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r342948104-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -779,6 +860,9 @@
     <t>Modern, clean, large rooms with an overlook of the PCH towards the ocean. A surprise find and definitely recommend. Park in the secured garage and explore all the sights of Laguna Beach on foot. The design of the room is not the standard same as every other hotel design. Large siting area, with a kitchenette and open feel. Two added bonuses are the modern clean bathroom and large closet space. The soaking/spa tub has an adjustable shower head so anyone over 6' does not have to contort and lots of space for your things. An added bonus is the balcony in the room I was fortunate to get. Sit and watch the sights (people and cars going by) is incredible. Quiet as well, even being on the PCH. An added extra that's just about priceless. The staff is also very nice and helpful. Overall a great stay at a great place.More</t>
   </si>
   <si>
+    <t>SWC23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r328629140-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -800,6 +884,9 @@
     <t>Laguna Beach is one of my favorite places in the world. Beautiful and eclectic, it offers a feast for the eyes around each corner. Having said that, this "apart-hotel" almost hits the mark. With shops and local transportation nearby, the location is ideal. Parking is convenient and check in is easy. A Ralph's market is a block away and some of the best restaurants are nearby. The room was spacious with a kitchenette and fireplace. The beds were comfortable and the price was reasonable. Unfortunately, something needs to be done about the façade. The street level needs some help with accumulated trash and a closed bar next door looking quite dilapidated. There were teens sneaking in and out of the parking structure and going to a party in one of the units--perhaps a lapse in security or a need to make access to rooms more secure. Also, our room had a long skylight which made sleeping past dawn almost impossible. This might be great for some but I don't think I will return.More</t>
   </si>
   <si>
+    <t>Ztravel71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r327442836-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -815,6 +902,9 @@
     <t>The room was clean and nicely appointed. The hotel sent me a text and email the day of our arrival to give us the details of our stay such as the gate and room door code. I like that I didn't have to check-in at a front desk. The hotel has a nice common area with seating, a grill and outdoor heaters. It is located just across the street from the ocean via two flights of steep stairs. There are gas stations, groceries, food and drink, all within walking distance from the hotel. I will definitely come back to stay here in the future!</t>
   </si>
   <si>
+    <t>G G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r324032494-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -836,6 +926,9 @@
     <t>At even a Motel 6 I expect a few things to be working: TV, toilet and shower.14 West had 1/3 of those for $245/night.The TV receiver was behind the closet wall with no way to change the channel or move the receiver! The HDMI cable was also damaged. Instead of fixing this, 14 West has a paper apologizing for it. What the...?!The toilet chain was broken. Management was quick to "fix" the toilet chain, but the chain was just reattached to the toilet flapper and it still had to be manually closed in order for the reservoir to fill. Also, the toilet paper holder was just dangling from the wall.Housekeeping never came and the tiny trash did not help that situation.Also, I requested "Room 8" 2 months in advance for my honeymoon, but did not receive it. Maybe it was booked, but I doubt it.On the plus side, the bed was very comfortable, the location is good, they had a full kitchen and the design was nice. I will give them a star for that.In retrospect, I should have paid the same amount for an upgraded unit with an ocean view at Pacific Edge across the street.More</t>
   </si>
   <si>
+    <t>cbhine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r307947040-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -857,6 +950,9 @@
     <t>First the location of the boutique hotel is very close to the center of downtown Laguna Beach, Ca. Easy walking to all sites. Parking is gated and under the hotel. It is also covered. There are only 14 rooms on the second floor and in the center of the rooms is a very nice area to lounge or enjoy the spa. The rooms are very nice, very clean and roomy. There is a small kitchen with microwave refrigerator sink glasses etc. Good dressing area, nice bath and large walk in closet with shelves. The floor is title and the deco is very appealing. Air conditioning is wonderful. We very much enjoyed this property and will stay there from now on. We just live about 40 miles away so we visit Laguna often. This place is excelling!!!!!! Very clean!More</t>
   </si>
   <si>
+    <t>Phebella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r304042504-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -875,6 +971,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>ks80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r298485376-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -893,6 +992,9 @@
     <t>The parking garage is located on the street level where the office is. We had no problem parking our large SUV and we never saw the lot full. The lot seemed secured and safe. We did have a bit of trouble getting into the lot because we needed a code to enter and was unable to get anyone via the box to tell us how to get in. Luckily, another guest shouted the code to us. Upon getting to the room, it was a little strange to have other guests lounging outside our room as the lounge chairs are in the central courtyard, however the other guests were generally friendly and it turned out not to be a problem. The room had modern decor with some quirks such as the cable box being in the closet, but the room was a good size and had a nice seating area. I did have issues with the iron and mini ironing board as the iron constantly spewed water all over my shirt and a full sized ironing board would've been ideal. Overall, it was an enjoyable stay and I'd definitely stay again if ever in the area. More</t>
   </si>
   <si>
+    <t>Celeste R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r270221002-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -911,6 +1013,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>rclayton5615</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r265270935-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -950,6 +1055,9 @@
     <t>What a great location in Laguna.  You can walk either way and find great beaches, restaurants and shopping.  This is our second stay here and we couldn't be happier with the place.  Great rooftop terrace and lounge chairs to relax, or grill out dinner.  Our room was #8 and it reminded me of being on a luxurious yacht with all the wood and curved wood ceiling.  Modern decor and I like it. The office lady that was there was super friendly.  THe complex is gated so you have to have a code to get in and out.  THe garage is tight, so I recommend a small car when staying here.  Right across the street is a great place to eat called The Orange Inn.  The best part is how early they open, like 530.  That's great for us that are on a 3 hour time difference change and need coffee!  Loved our stay here once again and I can't imagine every staying anywhere else when in town.More</t>
   </si>
   <si>
+    <t>melobeam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r257670001-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -971,6 +1079,9 @@
     <t>The Skinny:Parking - $15/day, covered (under hotel), tight squeezeDecor- modern, clean linesService- friendly front deskTowels - softBath Products - LatherSheets- sort of scratchy but not bad, bed was comfyBonus- fireplace in room, beach towels and chairs availWe stayed one night here at 14 West and were very pleased with the location. It's literally a 5 min walk to the main downtown Laguna area with all of the shops and dining. You can access the beach across the street as well. The room is huge (#3) and when we got there early at 1pm they let us check in then which was super nice. There is a kitchenette with everything you need if you want to cook and store food. Our microwave wasn't working but that was okay, I just used the stove to reheat leftovers. The closet is very big if you have a lot of stuff and there is a jacuzzi and a BBQ area outside the rooms. It was very quiet at night but around 9am we could here people talking outside. The road is pretty loud so just ask for a room towards the back of the hotel. I would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Terrance W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r257414095-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -986,6 +1097,9 @@
     <t>This was our first trip to Laguna Beach.  14 West was recommended by a co-worker.  We enjoyed our stay.  My only complaint is that the bed was squeaky.  Every time we moved it would squeak.  That's a pretty minor problem.  Well, one other thing...it's a little odd to have to point the TV remote toward the closet to change channels but once you get used to how to do it it's not a problem.  The location of the hotel is perfect.  We can be on the beach in in a 3 minute walk and shopping or eating in the Downtown area in 5 minutes.  We will stay there again.</t>
   </si>
   <si>
+    <t>CLaffin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r255526856-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1001,6 +1115,9 @@
     <t>This place was awesome. Clean, excellent location, amenities such as ice, hot tub, bbq not to mention steps from the beach and Ralphs the local grocery store. NO street noise and ample parking. We visited Knottsberry, Disneyland and San Diego Zoo all with a toddler in tow! They even provide beach chairs and towels.</t>
   </si>
   <si>
+    <t>bettihomemaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r249889309-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1022,6 +1139,9 @@
     <t>We stayed at the 14 West this weekend because my son was getting married in Laguna.  His future wife was the one who found the hotel and booked it for us.  What a lovely experience this was. All the rooms are very unique, immaculate and comfortable. When we arrived, the receptionist was upstairs and was so accommodating. She gave us the keys to our rooms (we needed an early check in because the wedding was at 3:30) without signing in, car info..... And she was kind enough to let my daughter into our room when she arrived so we could grab a quick lunch.  The location is excellent for staying in Laguna Beach.  You have everything you need in these rooms...actually two small refrigerator/freezers.  Cannot say enough good things about this hotel.  We would definitely stay there again.More</t>
   </si>
   <si>
+    <t>Jetsetclaire</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r247352508-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1040,6 +1160,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>bvear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r246577321-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1058,6 +1181,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Mary Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r233561172-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1079,6 +1205,9 @@
     <t>We stayed for the first time at 14 West last month.  We had always stayed at hotels that were 3 times the price of 14 West and not on the beach.  We really like this place. So, things to know when you check in.  There is a small gate that you must get a code for to get in to the parking garage, ideally check in at 3pm and there should be somebody in the office to let you in.  Additionally, there is no elevator, so you must take luggage upstairs, something to consider for those not able to navigate stairs.We checked in to a lovely room, got unpacked only to discover that the TV was not in working condition.  Hours later, we finally had to move to another upgraded room, and they brought us a nice bottle of wine to relax.  We loved being on the front of the hotel with a deck and never noticed any traffic noise.  Bathroom is great, closet is very large, 2 refrigerators, sink, plates and utensils were all there.  We had no issues making our bed and asking for extra towels if we needed them.   There is a Ralph's supermarket around the corner, several places to wash clothes around the corner, all kinds of restaurants, within walking distance, so convenient.  Close to the beach and the hop on/hop off tram as well.  We will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Christine H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r229787404-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1092,6 +1221,9 @@
   </si>
   <si>
     <t>I really liked my stay at 14 West.  The garage and instructions after hours are easy to follow. My only complaint would be that I faced PCH and it was very loud.  Also I was in room number 8, and my room never really completely got dark.  They do a refresh service, but I didn't get any new toiletries.  The bed and pillows were super comfortable.  The air conditioner worked well and there was even a fireplace.  The location is easy walking distance to main beach and tons of restaurants!</t>
+  </si>
+  <si>
+    <t>HelixGrad</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r221675501-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
@@ -1117,6 +1249,9 @@
     <t>My husband and I spent 4 nights here and chose it primarily for the location and price. The 14 rooms are all on a second floor above a gated parking garage with two sets of stairs but no elevator.  This is something to consider for a person with a disability or when toting a lot of luggage. The building was initially designed for small professional offices but has been repurposed as small studios. There is an inner court yard with a gas grill,  chaises, and dining table with chairs. In the back of the courtyard is a walled smoking area and an older hot tub.
 The furnishings are contemporary and reminded me of Ikea--functional and sleek. The kitchenette has a two burner ceramic top, two dorm size refrigerators,  microwave,  toaster and coffeemaker. There are dishes, two place settings of utensils,  a frying pan and small sauce pan, wine and beverage glasses. The bathroom is small and we found that if we placed dirty towels on the floor in the morning they were replaced. The rooms are "refreshed" by the staff in the morning which means fresh towels and the bed gets made. But you need to hand wash your own dishes in the tiny sink and I am not sure if the previous guests in our room had done this very well.
 The rooms have a gas fireplace and tv but we had trouble with the remote and couldn't fix...My husband and I spent 4 nights here and chose it primarily for the location and price. The 14 rooms are all on a second floor above a gated parking garage with two sets of stairs but no elevator.  This is something to consider for a person with a disability or when toting a lot of luggage. The building was initially designed for small professional offices but has been repurposed as small studios. There is an inner court yard with a gas grill,  chaises, and dining table with chairs. In the back of the courtyard is a walled smoking area and an older hot tub.The furnishings are contemporary and reminded me of Ikea--functional and sleek. The kitchenette has a two burner ceramic top, two dorm size refrigerators,  microwave,  toaster and coffeemaker. There are dishes, two place settings of utensils,  a frying pan and small sauce pan, wine and beverage glasses. The bathroom is small and we found that if we placed dirty towels on the floor in the morning they were replaced. The rooms are "refreshed" by the staff in the morning which means fresh towels and the bed gets made. But you need to hand wash your own dishes in the tiny sink and I am not sure if the previous guests in our room had done this very well.The rooms have a gas fireplace and tv but we had trouble with the remote and couldn't fix it. The closet is only big enough for one person to go in at a time but there are shelves built in. We agree with other reviews that mentioned the foot traffic and voices outside. The skylights are nice in the daytime but they made it difficult to sleep as did the porch light outside each door.  There were some beach items but only a couple of them so it would be better to bring your own. Free wi fi; parking is $12 a day but worth it since it is gate enclosed and there is hardly any parking on the street.During the summer there is a free shuttle so you can get to the shops and Pageant of the Masters without driving. There is a shuttle stop a half block away. Beaches are a short drive away ( we liked Aliso Beach--easy to drive to 10 minutes north with bathrooms and snack bar).If you are looking for a place that's cheaper than the big hotels this is a good choice.  We ate most breakfasts at the outdoor dining table and didn't mind not having a big kitchen. But the property is showing its age with the hot tub and beach items, and the  ttowels and kitchen items could use replacing. We would not stay here again but it was ok once and not a disaster.More</t>
+  </si>
+  <si>
+    <t>Donald T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r219928949-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
@@ -1147,6 +1282,9 @@
 The location...We were very excited to start our staycation in Laguna Beach knowing 14 West had great reviews and nice pics.From Los Angeles, we arrived at 3pm Sunday to check-in...so dissappointed, the room wasn't ready until almost 4pm.  Keep in mind there are only 14 rooms and check out is 11am.We didn't complain and decided to go for a walk.  We were told we would be called when the room was clean...no call came! They forgot or were too busy.  Either way, first impression wasn't good.  We were allowed to leave our bags in the closet but seeing the room a mess wasn't a smart thing.We quickly realized that our room had absolutely no windows!  Yes, the sky roof and the glass door gave a lot of  light.  However, to be near the beach was a real bummer that a window breeze nor a view was none to have.   Luckily the air condition worked great!  The towels looked very worn out (thin &amp; faded)...thank goodness the bedding was very nice!  The floors were very gritty from beach sand which made us feel the floors weren't clean...but its the beach:)  Overall condition of the room was good &amp; new.The other undesirable thing was the cleaning supplies that were parked across our door.  Everytime we opened the door, we see outside a broom, dust pan &amp; trash can....not a pretty sight.  It was there the entire time.The location was great...we walked all over the place.  They recommend to have breakfast across the street, Orange Cafe...Yikes, it wasn't good especially for the price (a basic breakfast sandwich is $10)...I would recommend going to the Hiedleberg Cafe (3 blocks south)...soooo much better!!! Fresh OJ, gourmet coffee, omelettes at the same price!!!'Wish it was all positive!More</t>
   </si>
   <si>
+    <t>Onlyoneklobie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r217707125-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1165,6 +1303,9 @@
     <t>We stayed at 14 West for a week and loved every minute! We strongly suggest utilizing the grill and patio area as much as possible. Our room became our home for our stay. It is a quiet place to come home to. The staff members were all friendly and helpful throughout our stay. We plan to return to 14 West in the future!On a more critical note, the bathroom was smaller than expected. We also struggled changing the channel because the cable box was in the closet. This has clearly been an issue before because the staff provided very detailed directions how to run the cable. These cons did not effect our stay, we're just being picky. This is a great place to stay!More</t>
   </si>
   <si>
+    <t>chempsych</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r217595393-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1180,6 +1321,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>slowsynchro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r205232266-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1201,6 +1345,9 @@
     <t>Living in Los Angeles, my girlfriend and I decided to get away from the city for a night to celebrate our one year anniversary in the small town of Laguna Beach. We arrived late at around 9:00pm, reception was closed, but the manager had texted me instructions on how to get into the room. They had locked the key for us with a coded padlock on the door. The room was beautiful. We particularly chose this hotel because of the little kitchenette so I could cook some pasta. The bed was a Tempur-pedic, which felt wonderful. Everything was very modern and the fireplace really added to the romance of the room. We also got to use the hot tub at night, which was very clean. We also really liked all the mood lighting in the room. The bathroom and shower was large, modern and clean.I loved everything about my stay this place. I would highly recommend it to anyone looking for a quick getaway.More</t>
   </si>
   <si>
+    <t>Amber A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r205145802-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1222,6 +1369,9 @@
     <t>We recently stayed two nights at 14west and were extremely pleased.The rooms were very nice, spacious, clean and quiet. They have a kitchenette with fridge/freezer, microwave and stovetop which is nice if you want to save a bit and cook in the room. Tip, bring your own coffee, they have a coffee maker but do not provide coffee. The hotel has a great common area outside with lounge chairs, a BBQ and hottub, the perfect place to relax and unwind. The only nuisance we encountered was the room " refresh." They don't clean the rooms daily like most hotels but instead tidy up. They didn't leave new towels, new soaps or replenish the shampoo. Not a huge deal, but a hassle if you discover your out of something and the office is already closed. The location is perfect. Right across the street is access to the beach and all shops and restaurants are within walking distance. Overall this was a great place to stay. We would recommend it to anyone looking for a quiet , quaint, chic hotel away from the party scene in Laguna Beach. More</t>
   </si>
   <si>
+    <t>NiamhenMullan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r203309827-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1240,6 +1390,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Muy1916</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r198910542-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1258,6 +1411,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>sun_n_bubbles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r198182400-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1279,6 +1435,9 @@
     <t>In have stayed at 14 West several times over the past year or two and have had a lovely stay every time. Comfortable beds, nice outdoor space with a BBQ and the location could only be better if it was on the water. The kitchenette is super for those on a budget or who don't wish to eat in restaurants for every meal. The price-quality ratio cannot be beat. I have only had one hiccup while staying there. There was sand in the 2nd bed, which my friend discovered on her only night in town. We told the manager and she apologized profusely and said they would follow up. My advice? Check the covers. Other than that, this is a great place to stay in Laguna.More</t>
   </si>
   <si>
+    <t>BigTuna3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r198005440-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1294,6 +1453,9 @@
     <t>This hotel was our home for 4 days. The rooms were very clean and modern, including a gas fireplace. The staff was very friendly and the hotel is located in a perfect location. The smell of the cleaning products was a little strong. It didn't bother us but something to take into consideration if you're sensitive to scents.Overall, highly recommended!</t>
   </si>
   <si>
+    <t>Vegas_Godfather</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r194589270-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1310,6 +1472,9 @@
   </si>
   <si>
     <t>February 2014</t>
+  </si>
+  <si>
+    <t>ram_traveller9</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r188819808-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
@@ -1335,6 +1500,9 @@
     <t>I travel to Laguna/Newport area weekly for work and this is our teams favorite hotel. We have stayed at a handful of hotels in Laguna, Huntington and Newport but 14 West tops them all. You feel like you are in more of an apartment than a hotel. 
 If you are expecting a hotel with room service, a 24/7 front desk etc. this is not your place but if you are expecting a cute yet modern room that feels more like a home, where you feel can cook or walk to the many restaurants in Laguna this is your place. The rooms are large, each with a stove, very clean, and brand new. In the common area there's a BBQ and a big table to eat at. Carolyn (the owner) is very sweet and accommodating. She has beach toys/chairs for you to use. The hotel is across the street from the beach which at first we wanted something on the water but we loved the feel of the hotel so much that the rooms and common areas make up for the fact that it's not directly on the water. It is very easy to walk across the street to the beach, plus this hotel has a hot-tub. 
 Also for those of you worried about the hotel being on PCH, I'm a very light sleeper and I could not hear the road at all, very quite in all the rooms. I would...I travel to Laguna/Newport area weekly for work and this is our teams favorite hotel. We have stayed at a handful of hotels in Laguna, Huntington and Newport but 14 West tops them all. You feel like you are in more of an apartment than a hotel. If you are expecting a hotel with room service, a 24/7 front desk etc. this is not your place but if you are expecting a cute yet modern room that feels more like a home, where you feel can cook or walk to the many restaurants in Laguna this is your place. The rooms are large, each with a stove, very clean, and brand new. In the common area there's a BBQ and a big table to eat at. Carolyn (the owner) is very sweet and accommodating. She has beach toys/chairs for you to use. The hotel is across the street from the beach which at first we wanted something on the water but we loved the feel of the hotel so much that the rooms and common areas make up for the fact that it's not directly on the water. It is very easy to walk across the street to the beach, plus this hotel has a hot-tub. Also for those of you worried about the hotel being on PCH, I'm a very light sleeper and I could not hear the road at all, very quite in all the rooms. I would highly recommended this hotel to anyone looking for a boutique hotel getaway.More</t>
+  </si>
+  <si>
+    <t>peachbum83</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r188603360-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
@@ -1369,6 +1537,9 @@
 - Broken fixtures - We had a fairly large number of people staying here together so I did get to see a number...14 West has a lot of perks and pros but it does have some issues. In addition, this was my first stay at a "boutique hotel" and there are some things to consider if you've never stayed at one. Pros: - Location - it's very close to the beach and very close to places to eat and shop. For most people, this is key and this place really gets you right where you want to be.- Modern - fixtures and furniture give a very chic feeling to the rooms- Amenities - kitchenette, walk in closet, seating areas, fireplace... fantastic!Cons: - Staffing : the hotel is very small. It has a total of 14 rooms so naturally the staff is very small. Make sure you have everything you need from the staff (answers to questions, extra towels, issues with your room, etc.) from the hours of 9 to 5 because if you come back after dinner, they're not going to be there! There is an after hours number to call but there's a reasonable limit to what can be done after hours. This was something that, in hindsight, is pretty obvious with a small establishment, but at the time was pretty shocking. Most people are used to a 24 hour front desk staff at least.- Broken fixtures - We had a fairly large number of people staying here together so I did get to see a number of the rooms here. Everyone had one odd light bulb out or something didn't work, a drawer didn't open, or something like that. Unfortunately for us the light bulb that wasn't working was the one in the shower. The bathroom is very contemporary in decor so it was fairly dark in there to begin with. The lack of one out of the two light bulbs was an issue.- Parking costs - Be aware that there is an extra charge for parking your car! 14 West is enjoyable but do be aware that there are caveats.More</t>
   </si>
   <si>
+    <t>AHBDC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r185193988-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1384,6 +1555,9 @@
     <t>My husband and I stayed here for our fifth anniversary trip the first week of November and loved everything about it!  The rooms are stylish and modern with great amenities, like the fireplace and kitchen. It's a perfect location too, walk-able to Cleo Street beach, tons of restaurants, shops, Ralph's, and galleries too.  Can't wait to go back!</t>
   </si>
   <si>
+    <t>rob h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r182840136-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1397,6 +1571,9 @@
   </si>
   <si>
     <t>I stayed at the hotel last week. Everything was great. Carolyn the office manager even carried our bags to the room. I would definitely stay here again.The  location is perfect where you can leave your car in a gated garage and walk everywhere.</t>
+  </si>
+  <si>
+    <t>peterlc63</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r180880801-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
@@ -1421,6 +1598,9 @@
 It was strange having to point the cable remote toward the closet were the receiver was as other reviewers have mentioned but, we got to used to it after...My wife and I spent the weekend in Laguna Beach for her birthday and I booked this place based on the pictures of the amazing rooms. Room #7 was very nice with a very comfy tempur-pedic bed, kitchenette, and  big screen TV with HBO. The hotel is about a short block away from the Cliffs Restaurant so the location was very convenient. We are able to walk to the Kya Bistro in about 15 minutes. The wifi worked fine while we were there.Check-in time was 3:00 but our room wasn't ready until 4:00. No biggie as we just walked into town to do a little shopping and they called us when the room was ready. The light above the bathroom sink wasn't working so they put in a little desk lamp which was fine for washing hands but, not for my wife putting her makeup on. If you book #7, you may want to ask if they have fixed it. On the lights on the left side of the best wasn't working either but, we weren't looking to do any reading so that didn't bothered us.  They don't provide coffee or tea but, it is right next to a Ralphs if you want to brew your own during your stay.It was strange having to point the cable remote toward the closet were the receiver was as other reviewers have mentioned but, we got to used to it after awhile.  South Coast Highway does get pretty noisy on the weekends so getting the balcony rooms may not be ideal if you prefer to have it more quiet.All in all, it was a very nice stay and slept pretty well. If we stay in Laguna Beach again, we'll definitely stay here again.More</t>
   </si>
   <si>
+    <t>chris r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r174047798-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1436,6 +1616,9 @@
     <t>The hotel is 14 individual units. It is more akin to an apt.  We arrived and checked in with ease.  The property manager was wonderful.  She tried to get the wifi working but was unable. She printed our sea world tix in her office.  She was a real help and invaluable to their operation.  We stayed in room 1. This room had a step that split the room.  Dangerous at night.</t>
   </si>
   <si>
+    <t>jaholloway</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r164303600-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1454,6 +1637,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>sugarl1952</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r163837870-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1472,6 +1658,9 @@
     <t>The location of 14 West is good. Beach access at Cleo Street and the main beach is within walking distance. The hotel room was clean everywhere except the floor which was filthy; we had to wear socks and take them off right before getting into bed so the sheets would stay clean. Having a fireplace in the room is nice, but the uncovered skylight wakes you up at dawn and having frosted glass on the front door takes away from the romance. Also the toiletries were lower quality than what you get at a Holiday Inn. On the upside, the mattresses are comfortable memory foam. Overall 14 West is good, but missed the mark on a few things. I wouldn't pay full price for a room.More</t>
   </si>
   <si>
+    <t>blomdan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r162678026-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1487,6 +1676,9 @@
     <t>Spent 1 night there with my wife as we passed through Laguna beach. Great location with everything in walking distance. Shop around the corner can be used for any goceries you need. Definitely use recomendations section of guide in room we got to try out two of them while we stayed there and they were amazing. Staff were friendly and helpful. Rooms were spacious and  clean. Bed is very comfortable. Highly recomend.</t>
   </si>
   <si>
+    <t>Tammy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r161832421-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1505,6 +1697,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>sf-area</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r158958692-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1521,6 +1716,9 @@
   </si>
   <si>
     <t>April 2013</t>
+  </si>
+  <si>
+    <t>Jacob G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r156424477-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
@@ -1547,6 +1745,9 @@
 Our room featured a king-sized bed, sitting area, kitchenette, bathroom etc..  My wife commented that a good deal of thought went into the design.  While the room was not big, everything we needed was there, and where it should be.  A skylight provided natural light for both kitchen and bathroom.  We were extremely comfortable in the small space, but I wonder if a family of 4 (of which we are part...My wife and I recently spent several nights at 14 West - part of a much anticipated vacation for the two of us.  We picked the hotel because of its central location in Laguna Beach, studio apt-like trappings (working kitchen), and cost.  Also, I travel for work, and the idea of NOT staying in a traditional hotel was appealing.We arrived after-hours on the night of our arrival and had to negotiate the hotel's security to get the car parked and the room unlocked.  We had zero problems.  The hotel sent clear instructions on how to do it in advance and even sent us a text on the day of our arrival.There are several different rooms (14 I think), the majority of which have floor to ceiling windows looking out at an elevated common area/terrace.  The layout is well designed and well appointed with a barbecue, hot tub, and plenty of sitting/lounging space - shaded and unshaded.  A view of the ocean is possible though not when sitting.Our room featured a king-sized bed, sitting area, kitchenette, bathroom etc..  My wife commented that a good deal of thought went into the design.  While the room was not big, everything we needed was there, and where it should be.  A skylight provided natural light for both kitchen and bathroom.  We were extremely comfortable in the small space, but I wonder if a family of 4 (of which we are part of) could do it without incident.  We were on a budget, so we cooked quite a bit.  There is a decent sized grocery store (Ralph's) a half block from the hotel.  The room kitchenette had a okay compliment of bowls, tools, etc., but lacked a dish drain, or dish towels.  There is no dishwasher.  There is housekeeping, but it's just a "tidy up".  If you want to use your kitchen, you'll have to clean your kitchen. Again, no problem for the two of us, but a larger family = more dishes.We walked everywhere so the car stayed parked below the rooms (brilliant design).  The beach is ridiculously close, good food is everywhere as are shops, art, etc..  Bottom Line:  This is a very solid hotel and an outstanding value.  Laguna Beach is a very pleasant town with multiple ways to spend your time.  Those that work and live there were very welcoming and we look forward to returning.I struggled with writing this review.  I'd rather 14 West go unnoticed so we can always get a room, but that'd be unfair to the team that has made this hotel such an outstanding place to stay.More</t>
   </si>
   <si>
+    <t>Esha B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r156090334-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1562,6 +1763,9 @@
     <t>Best hotel. Best location. Best atmosphere! It was just perfect and will definitely be back with my husband and children. It was a much needed girls vacation. We enjoyed the Laguna area very much. The people were genuinely nice. We are vegans and it was no problem finding good food. In fact, The Stand, which is a vegan spot was only two lights away. Everything was in walking distance (Whole Foods, dairy-free gelato, falafel, beach,etc). We rented a car anyway because we wanted to go to LA, which was only an hour away. Hands down the best vacation I've had thus far.</t>
   </si>
   <si>
+    <t>Travlnqueen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r155258231-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1577,6 +1781,9 @@
     <t>Found this cute place on my Hotel Tonight app.  Pleasantly surprised. Great location. Very small. Only down side is that the office closes at 6 pm. My flight was later so I spoke with them on the phone. They were so helpful and kind. No problem getting in, parking, etc.  Very cute/hip. Comfortable bed, shower, mini kitchen.  Would stay again. Super sweet staff.</t>
   </si>
   <si>
+    <t>QuickCone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r152311041-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1592,6 +1799,9 @@
     <t>Found this gem online. Excellent and friendly service by staff, very reasonable prices, and right in the middle of downtown Laguna. We easily walked to beach, restaurants and bars. I like the feeling of a condo with personality more so than a huge generic hotel.  Malibu Room #11 was gorgeous, very clean, modern, and well stocked. Super comfy bed, romantic fireplace and lots of natural light from skylights. Love the kitchenette, outdoor patio, and common space with hot tub, lounge chairs and BBQ. Will Absoluetly stay here again and highly recommend to anyone!!!</t>
   </si>
   <si>
+    <t>4perksteins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r152141911-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1610,6 +1820,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>DRJG59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r149442678-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1628,6 +1841,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>heather85027</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r148849408-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1649,6 +1865,9 @@
     <t>14 west is AMAZING we will not stay anywhere else in Laguna. This was our first time in laguna and by far the best place to stay. Its modern, hip, sophisticated, and quiet. Located right next to Ralph's for groceries as the rooms have kitchenettes. The beach is literally across the street. The price is much better than the hotels on the beach and much cleaner. There is even a hot tub and bbq grills right outside the rooms, parking is a piece of cake because you get your own spot in the garage and can walk to all restaurants and shopping. I brought my husband here to surprise him with some friends for his 30th birthday. Carolyn from 14west went out of her way to post happy birthday signs in the room, included balloons, champaign, and a cupcake. I didn't even request these things to be done she just offered. She went above and beyond for us and we appreciated everything, thanks again 14 west for making our stay special we definitely will stay here again!More</t>
   </si>
   <si>
+    <t>SWYD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r146587685-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1670,6 +1889,9 @@
     <t>Thank you 14 West for your warm hospitality and friendliness during our stay.Your property provided a very unique experience with many hidden pleasures. The hot tub in its private, cozy setting is exquisite during sunset and provides tranquility after an active day on the beach.  We appreciate all the beach toys, chairs and towels you provide to your guests!Our room was equipped with modern conveniences with comforts of home and more.  The fireplace, not only beautiful to look at, created a warm, inviting atmosphere. So thank you again, my beloved 14 West, for making our "escape" an unforgettable experience and giving us memories to last a lifetime! T &amp; DMore</t>
   </si>
   <si>
+    <t>VictorSurpaceanu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r146501442-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1691,6 +1913,9 @@
     <t>This is a self-catering studio place in our "old town" Laguna Beach. For our  nostalgia trip back to the place where we use to live 8 years ago, we chose 14 West. The location is perfect - in the Village, close to great  beaches, restaurants and stores. Having a supervised garage spot in one of the few places in California where you can actually leave your car and walk to everything is a great plus!The studio was clean and well-equipped, the bed was great for the adults and the futon was big enough for our 6 and 8 year old to share.  In all fairness, the studio design is more cool than "practical". There are small details which a frequent traveler's eye would spot react to. We have give our feedback to the staff and they seemed genuinely interested to take it in consideration.  Which brings us to the staff: Carolyn and Eva were fantastic! Helpful, kind, charming and service-minded to the point were they drove for 30 miles in  the middle fo dinner-time on a Satudary to let us in into our studio, when our 6 year old accidentaly locked us out! The whole 12 day stay  at 14 West has been great and we recommend this place warmly.More</t>
   </si>
   <si>
+    <t>littlemisstravellerr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r143930624-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1706,6 +1931,9 @@
     <t>I had a wonderful stay at 14 West in Laguna Beach. The two ladies, Carolyn and Marieva, that run the show are very friendly and helpful, I was most impressed with their service! It makes a huge difference to me to deal with friendly people who do not possess any kind of attitude. I felt very welcome and comfortable during my stay at 14 West. The location was perfect for me too, close to the beach and shops. I will definitely stay here again!</t>
   </si>
   <si>
+    <t>DiAbney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r140200930-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
   </si>
   <si>
@@ -1725,6 +1953,9 @@
   </si>
   <si>
     <t>What an amazing property!  Our trip was a last-minute 3-day getaway and we wanted something a little out of the ordinary hotel experience and we definitely found it with 14 West in Laguna Beach!From the minute we arrived we were in awe of the wonderful experience we had!  From the amazing customer service to the outstanding upkeep of this beautiful property, we were permanently SOLD!!!  We could not have asked for nicer accommodations or staff to serve us!  The location is amazing!  The management at 14 West truly understands what "quality accommodations" means.  Cleanliness is unsurpassed and attention to detail is definitely a strong priority.This is our new Laguna Beach destination!  We are looking forward to coming back....SOON!!!!More</t>
+  </si>
+  <si>
+    <t>Laurie M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32588-d3468716-r140039391-14_West_Boutique_Hotel-Laguna_Beach_California.html</t>
@@ -2247,34 +2478,38 @@
       <c r="A2" t="n">
         <v>64671</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>79739</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -2293,50 +2528,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64671</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>119498</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2356,50 +2595,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64671</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>119499</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2417,50 +2660,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64671</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>119500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2478,56 +2725,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64671</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>119501</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2543,56 +2794,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64671</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>119502</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2604,56 +2859,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64671</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>119503</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2665,56 +2924,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64671</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>119504</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2726,56 +2989,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64671</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>119505</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2793,56 +3060,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64671</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>119506</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2862,50 +3133,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64671</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>100568</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2919,50 +3194,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64671</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>9110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>131</v>
       </c>
-      <c r="K13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>121</v>
-      </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2980,56 +3259,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64671</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>119507</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3041,56 +3324,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64671</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>119508</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3108,56 +3395,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64671</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>119509</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3175,56 +3466,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64671</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>9470</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3240,56 +3535,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64671</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>119510</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3307,56 +3606,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64671</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>9132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3372,56 +3675,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64671</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>119511</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3433,47 +3740,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="X20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64671</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>10370</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -3490,56 +3801,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64671</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>119512</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3555,56 +3870,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="X22" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64671</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7210</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3622,50 +3941,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64671</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>39868</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3677,56 +4000,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="X24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Y24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64671</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>90141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3742,56 +4069,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64671</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>96023</v>
+      </c>
+      <c r="C26" t="s">
+        <v>254</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3807,56 +4138,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="X26" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64671</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>119513</v>
+      </c>
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3874,56 +4209,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64671</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>322</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3939,56 +4278,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="X28" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64671</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>119514</v>
+      </c>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4002,50 +4345,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64671</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>119515</v>
+      </c>
+      <c r="C30" t="s">
+        <v>284</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="J30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="K30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="L30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4059,50 +4406,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64671</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>21549</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4122,50 +4473,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64671</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>111497</v>
+      </c>
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4185,50 +4540,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64671</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>119516</v>
+      </c>
+      <c r="C33" t="s">
+        <v>306</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4242,41 +4601,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64671</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>119517</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -4295,50 +4658,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64671</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>119518</v>
+      </c>
+      <c r="C35" t="s">
+        <v>320</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="K35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4356,50 +4723,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64671</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>119519</v>
+      </c>
+      <c r="C36" t="s">
+        <v>327</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="J36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="K36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4419,50 +4790,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64671</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>96023</v>
+      </c>
+      <c r="C37" t="s">
+        <v>254</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4480,50 +4855,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64671</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>3550</v>
+      </c>
+      <c r="C38" t="s">
+        <v>341</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="O38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4541,50 +4920,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64671</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>119520</v>
+      </c>
+      <c r="C39" t="s">
+        <v>349</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="O39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4604,50 +4987,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64671</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>119521</v>
+      </c>
+      <c r="C40" t="s">
+        <v>355</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4665,50 +5052,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64671</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>119522</v>
+      </c>
+      <c r="C41" t="s">
+        <v>361</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J41" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4728,50 +5119,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64671</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>119523</v>
+      </c>
+      <c r="C42" t="s">
+        <v>369</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="J42" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4791,50 +5186,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64671</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>119524</v>
+      </c>
+      <c r="C43" t="s">
+        <v>376</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="J43" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="O43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4848,50 +5247,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64671</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>12301</v>
+      </c>
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="K44" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4911,50 +5314,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64671</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>47753</v>
+      </c>
+      <c r="C45" t="s">
+        <v>391</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="J45" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="K45" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="L45" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="O45" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4968,50 +5375,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64671</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>119525</v>
+      </c>
+      <c r="C46" t="s">
+        <v>397</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="J46" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="K46" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="L46" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="O46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5031,50 +5442,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64671</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>119526</v>
+      </c>
+      <c r="C47" t="s">
+        <v>405</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="J47" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="K47" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="L47" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="O47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5094,41 +5509,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64671</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>119527</v>
+      </c>
+      <c r="C48" t="s">
+        <v>412</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="J48" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="K48" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5147,50 +5566,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64671</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>119528</v>
+      </c>
+      <c r="C49" t="s">
+        <v>419</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5210,50 +5633,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64671</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>119529</v>
+      </c>
+      <c r="C50" t="s">
+        <v>425</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="J50" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="K50" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5277,50 +5704,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64671</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>48811</v>
+      </c>
+      <c r="C51" t="s">
+        <v>433</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="J51" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="K51" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="L51" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="O51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5334,50 +5765,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64671</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>119530</v>
+      </c>
+      <c r="C52" t="s">
+        <v>441</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="J52" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="K52" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="L52" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="O52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5401,50 +5836,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64671</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>119531</v>
+      </c>
+      <c r="C53" t="s">
+        <v>448</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="J53" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="K53" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="L53" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="O53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5458,50 +5897,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64671</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>119532</v>
+      </c>
+      <c r="C54" t="s">
+        <v>455</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="J54" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="K54" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="L54" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="O54" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5525,50 +5968,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64671</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>119533</v>
+      </c>
+      <c r="C55" t="s">
+        <v>463</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="J55" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="K55" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="L55" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="O55" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5592,50 +6039,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64671</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>119534</v>
+      </c>
+      <c r="C56" t="s">
+        <v>469</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="J56" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="K56" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="L56" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5649,50 +6100,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64671</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>119535</v>
+      </c>
+      <c r="C57" t="s">
+        <v>476</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="J57" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="K57" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="L57" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="O57" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5716,50 +6171,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64671</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>119536</v>
+      </c>
+      <c r="C58" t="s">
+        <v>484</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="J58" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="K58" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="O58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5783,50 +6242,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64671</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>119537</v>
+      </c>
+      <c r="C59" t="s">
+        <v>491</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="J59" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="K59" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="L59" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="O59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5850,50 +6313,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64671</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>119538</v>
+      </c>
+      <c r="C60" t="s">
+        <v>497</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="J60" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="K60" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="L60" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="O60" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5917,50 +6384,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64671</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>119539</v>
+      </c>
+      <c r="C61" t="s">
+        <v>503</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="J61" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="K61" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="L61" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="O61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5984,41 +6455,45 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64671</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>119540</v>
+      </c>
+      <c r="C62" t="s">
+        <v>510</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="J62" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="K62" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="L62" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
@@ -6047,50 +6522,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64671</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>119541</v>
+      </c>
+      <c r="C63" t="s">
+        <v>516</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="J63" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="K63" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="L63" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="O63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6114,50 +6593,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64671</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>119542</v>
+      </c>
+      <c r="C64" t="s">
+        <v>523</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>462</v>
+        <v>524</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="J64" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="K64" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="L64" t="s">
-        <v>466</v>
+        <v>528</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="O64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6181,41 +6664,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64671</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>119543</v>
+      </c>
+      <c r="C65" t="s">
+        <v>530</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="J65" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="K65" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="L65" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -6244,50 +6731,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64671</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>5794</v>
+      </c>
+      <c r="C66" t="s">
+        <v>536</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="J66" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="K66" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="L66" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="O66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6311,50 +6802,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64671</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>119544</v>
+      </c>
+      <c r="C67" t="s">
+        <v>543</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="J67" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="K67" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="L67" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>484</v>
+        <v>549</v>
       </c>
       <c r="O67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6378,50 +6873,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64671</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>38250</v>
+      </c>
+      <c r="C68" t="s">
+        <v>550</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="J68" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="K68" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="L68" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="O68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6445,50 +6944,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64671</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>119545</v>
+      </c>
+      <c r="C69" t="s">
+        <v>557</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="J69" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="K69" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="L69" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="O69" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6512,50 +7015,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64671</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>119546</v>
+      </c>
+      <c r="C70" t="s">
+        <v>563</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="J70" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="K70" t="s">
-        <v>499</v>
+        <v>567</v>
       </c>
       <c r="L70" t="s">
-        <v>500</v>
+        <v>568</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="O70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6579,41 +7086,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>500</v>
+        <v>568</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64671</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>119547</v>
+      </c>
+      <c r="C71" t="s">
+        <v>569</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
       <c r="J71" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="K71" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="L71" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -6642,50 +7153,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64671</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>119548</v>
+      </c>
+      <c r="C72" t="s">
+        <v>575</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>506</v>
+        <v>576</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="J72" t="s">
-        <v>508</v>
+        <v>578</v>
       </c>
       <c r="K72" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
       <c r="L72" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="O72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -6699,50 +7214,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64671</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>119549</v>
+      </c>
+      <c r="C73" t="s">
+        <v>582</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="J73" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
       <c r="K73" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="L73" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="O73" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6766,50 +7285,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>64671</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>119550</v>
+      </c>
+      <c r="C74" t="s">
+        <v>589</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="J74" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="K74" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="L74" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="O74" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6833,50 +7356,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>524</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>64671</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>119551</v>
+      </c>
+      <c r="C75" t="s">
+        <v>597</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="J75" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="K75" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="L75" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="O75" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6900,50 +7427,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>64671</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>119552</v>
+      </c>
+      <c r="C76" t="s">
+        <v>605</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="J76" t="s">
-        <v>534</v>
+        <v>608</v>
       </c>
       <c r="K76" t="s">
-        <v>535</v>
+        <v>609</v>
       </c>
       <c r="L76" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="O76" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -6967,50 +7498,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>538</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>64671</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>119553</v>
+      </c>
+      <c r="C77" t="s">
+        <v>613</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>539</v>
+        <v>614</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="J77" t="s">
-        <v>541</v>
+        <v>616</v>
       </c>
       <c r="K77" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="L77" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="O77" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7032,50 +7567,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>64671</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>119554</v>
+      </c>
+      <c r="C78" t="s">
+        <v>619</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="J78" t="s">
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="K78" t="s">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="L78" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="O78" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7099,50 +7638,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>64671</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>8208</v>
+      </c>
+      <c r="C79" t="s">
+        <v>627</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>551</v>
+        <v>628</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>552</v>
+        <v>629</v>
       </c>
       <c r="J79" t="s">
-        <v>553</v>
+        <v>630</v>
       </c>
       <c r="K79" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="L79" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="O79" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7166,7 +7709,7 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
